--- a/_docs/schema.xlsx
+++ b/_docs/schema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\PROJECTS\stone-fra\_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\PROJECTS\stone-fra\_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4AEE3C-6D8B-48B5-AD04-447A36E47F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAF49D6-C1F2-4DA9-8A8A-FBFA984E447D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="欄位定義" sheetId="2" r:id="rId1"/>
@@ -2923,8 +2923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A76A25D-3D93-4646-B21A-9D8CE5759F25}">
   <dimension ref="A1:M335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H275" sqref="H275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/_docs/schema.xlsx
+++ b/_docs/schema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\PROJECTS\stone-fra\_docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\fra\_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C46BF5-DA73-4D79-BDA6-F31E91FBC16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89236142-6200-4190-B658-9E2EAE831531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2670" yWindow="6120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="欄位定義" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3411" uniqueCount="1150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3965" uniqueCount="1154">
   <si>
     <t>美國-Baker Hughes原油鑽油井數量</t>
   </si>
@@ -3680,6 +3680,18 @@
   </si>
   <si>
     <t>freq</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Q</t>
   </si>
 </sst>
 </file>
@@ -4357,8 +4369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A76A25D-3D93-4646-B21A-9D8CE5759F25}">
   <dimension ref="A1:N571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A423" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4417,7 +4429,9 @@
       <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="16" t="s">
+        <v>1150</v>
+      </c>
       <c r="D2" s="16" t="s">
         <v>441</v>
       </c>
@@ -4440,7 +4454,9 @@
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D3" s="17" t="s">
         <v>441</v>
       </c>
@@ -4463,7 +4479,9 @@
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D4" s="17" t="s">
         <v>441</v>
       </c>
@@ -4510,7 +4528,9 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D6" s="17" t="s">
         <v>441</v>
       </c>
@@ -4533,7 +4553,9 @@
       <c r="B7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="31"/>
+      <c r="C7" s="31" t="s">
+        <v>1152</v>
+      </c>
       <c r="D7" s="17" t="s">
         <v>441</v>
       </c>
@@ -4556,7 +4578,9 @@
       <c r="B8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="31"/>
+      <c r="C8" s="31" t="s">
+        <v>1152</v>
+      </c>
       <c r="D8" s="17" t="s">
         <v>441</v>
       </c>
@@ -4579,7 +4603,9 @@
       <c r="B9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="31"/>
+      <c r="C9" s="31" t="s">
+        <v>1152</v>
+      </c>
       <c r="D9" s="17" t="s">
         <v>441</v>
       </c>
@@ -4602,7 +4628,9 @@
       <c r="B10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="31" t="s">
+        <v>1152</v>
+      </c>
       <c r="D10" s="17" t="s">
         <v>441</v>
       </c>
@@ -4625,7 +4653,9 @@
       <c r="B11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="31" t="s">
+        <v>1152</v>
+      </c>
       <c r="D11" s="17" t="s">
         <v>441</v>
       </c>
@@ -4648,7 +4678,9 @@
       <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="17" t="s">
+        <v>1153</v>
+      </c>
       <c r="D12" s="17" t="s">
         <v>441</v>
       </c>
@@ -4672,7 +4704,9 @@
       <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="17" t="s">
+        <v>1153</v>
+      </c>
       <c r="D13" s="17" t="s">
         <v>441</v>
       </c>
@@ -4696,7 +4730,9 @@
       <c r="B14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="17" t="s">
+        <v>1153</v>
+      </c>
       <c r="D14" s="17" t="s">
         <v>441</v>
       </c>
@@ -4720,7 +4756,9 @@
       <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="17" t="s">
+        <v>1153</v>
+      </c>
       <c r="D15" s="17" t="s">
         <v>441</v>
       </c>
@@ -4744,7 +4782,9 @@
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D16" s="17" t="s">
         <v>441</v>
       </c>
@@ -4768,7 +4808,9 @@
       <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D17" s="17" t="s">
         <v>441</v>
       </c>
@@ -4792,7 +4834,9 @@
       <c r="B18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D18" s="17" t="s">
         <v>441</v>
       </c>
@@ -4815,7 +4859,9 @@
       <c r="B19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D19" s="17" t="s">
         <v>441</v>
       </c>
@@ -4839,7 +4885,9 @@
       <c r="B20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D20" s="17" t="s">
         <v>441</v>
       </c>
@@ -4863,7 +4911,9 @@
       <c r="B21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D21" s="17" t="s">
         <v>441</v>
       </c>
@@ -4887,7 +4937,9 @@
       <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D22" s="17" t="s">
         <v>441</v>
       </c>
@@ -4910,7 +4962,9 @@
       <c r="B23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D23" s="17" t="s">
         <v>441</v>
       </c>
@@ -4934,7 +4988,9 @@
       <c r="B24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="17"/>
+      <c r="C24" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D24" s="17" t="s">
         <v>441</v>
       </c>
@@ -4958,7 +5014,9 @@
       <c r="B25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D25" s="17" t="s">
         <v>441</v>
       </c>
@@ -4981,7 +5039,9 @@
       <c r="B26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D26" s="17" t="s">
         <v>441</v>
       </c>
@@ -5004,7 +5064,9 @@
       <c r="B27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="17"/>
+      <c r="C27" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D27" s="17" t="s">
         <v>441</v>
       </c>
@@ -5028,7 +5090,9 @@
       <c r="B28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D28" s="17" t="s">
         <v>441</v>
       </c>
@@ -5052,7 +5116,9 @@
       <c r="B29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D29" s="17" t="s">
         <v>441</v>
       </c>
@@ -5075,7 +5141,9 @@
       <c r="B30" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="17"/>
+      <c r="C30" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D30" s="17" t="s">
         <v>441</v>
       </c>
@@ -5099,7 +5167,9 @@
       <c r="B31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D31" s="17" t="s">
         <v>441</v>
       </c>
@@ -5122,7 +5192,9 @@
       <c r="B32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="17"/>
+      <c r="C32" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D32" s="17" t="s">
         <v>441</v>
       </c>
@@ -5146,7 +5218,9 @@
       <c r="B33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="17"/>
+      <c r="C33" s="17" t="s">
+        <v>1153</v>
+      </c>
       <c r="D33" s="17" t="s">
         <v>441</v>
       </c>
@@ -5170,7 +5244,9 @@
       <c r="B34" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D34" s="17" t="s">
         <v>441</v>
       </c>
@@ -5194,7 +5270,9 @@
       <c r="B35" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="C35" s="17"/>
+      <c r="C35" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D35" s="17" t="s">
         <v>441</v>
       </c>
@@ -5217,7 +5295,9 @@
       <c r="B36" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="17"/>
+      <c r="C36" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D36" s="17" t="s">
         <v>441</v>
       </c>
@@ -5240,7 +5320,9 @@
       <c r="B37" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D37" s="17" t="s">
         <v>441</v>
       </c>
@@ -5264,7 +5346,9 @@
       <c r="B38" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D38" s="17" t="s">
         <v>441</v>
       </c>
@@ -5288,7 +5372,9 @@
       <c r="B39" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D39" s="17" t="s">
         <v>441</v>
       </c>
@@ -5312,7 +5398,9 @@
       <c r="B40" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="17"/>
+      <c r="C40" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D40" s="17" t="s">
         <v>441</v>
       </c>
@@ -5336,7 +5424,9 @@
       <c r="B41" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="17"/>
+      <c r="C41" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D41" s="17" t="s">
         <v>441</v>
       </c>
@@ -5360,7 +5450,9 @@
       <c r="B42" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D42" s="17" t="s">
         <v>441</v>
       </c>
@@ -5384,7 +5476,9 @@
       <c r="B43" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="17"/>
+      <c r="C43" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D43" s="17" t="s">
         <v>441</v>
       </c>
@@ -5407,7 +5501,9 @@
       <c r="B44" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="17"/>
+      <c r="C44" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D44" s="17" t="s">
         <v>441</v>
       </c>
@@ -5430,7 +5526,9 @@
       <c r="B45" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="17"/>
+      <c r="C45" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D45" s="17" t="s">
         <v>441</v>
       </c>
@@ -5454,7 +5552,9 @@
       <c r="B46" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="17"/>
+      <c r="C46" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D46" s="17" t="s">
         <v>441</v>
       </c>
@@ -5478,7 +5578,9 @@
       <c r="B47" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="17"/>
+      <c r="C47" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D47" s="17" t="s">
         <v>441</v>
       </c>
@@ -5501,7 +5603,9 @@
       <c r="B48" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="17"/>
+      <c r="C48" s="17" t="s">
+        <v>1150</v>
+      </c>
       <c r="D48" s="17" t="s">
         <v>441</v>
       </c>
@@ -5524,7 +5628,9 @@
       <c r="B49" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="17"/>
+      <c r="C49" s="17" t="s">
+        <v>1150</v>
+      </c>
       <c r="D49" s="17" t="s">
         <v>441</v>
       </c>
@@ -5548,7 +5654,9 @@
       <c r="B50" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="17"/>
+      <c r="C50" s="17" t="s">
+        <v>1150</v>
+      </c>
       <c r="D50" s="17" t="s">
         <v>441</v>
       </c>
@@ -5571,7 +5679,9 @@
       <c r="B51" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="17"/>
+      <c r="C51" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D51" s="17" t="s">
         <v>441</v>
       </c>
@@ -5595,7 +5705,9 @@
       <c r="B52" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="17"/>
+      <c r="C52" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D52" s="17" t="s">
         <v>441</v>
       </c>
@@ -5618,7 +5730,9 @@
       <c r="B53" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="17"/>
+      <c r="C53" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D53" s="17" t="s">
         <v>441</v>
       </c>
@@ -5640,7 +5754,9 @@
       <c r="B54" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="17"/>
+      <c r="C54" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D54" s="17" t="s">
         <v>441</v>
       </c>
@@ -5663,7 +5779,9 @@
       <c r="B55" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="17"/>
+      <c r="C55" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D55" s="17" t="s">
         <v>441</v>
       </c>
@@ -5686,7 +5804,9 @@
       <c r="B56" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="17"/>
+      <c r="C56" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D56" s="17" t="s">
         <v>441</v>
       </c>
@@ -5709,7 +5829,9 @@
       <c r="B57" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="17"/>
+      <c r="C57" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D57" s="17" t="s">
         <v>441</v>
       </c>
@@ -5732,7 +5854,9 @@
       <c r="B58" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="17"/>
+      <c r="C58" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D58" s="17" t="s">
         <v>441</v>
       </c>
@@ -5755,7 +5879,9 @@
       <c r="B59" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="17"/>
+      <c r="C59" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D59" s="17" t="s">
         <v>441</v>
       </c>
@@ -5778,7 +5904,9 @@
       <c r="B60" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="17"/>
+      <c r="C60" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D60" s="17" t="s">
         <v>441</v>
       </c>
@@ -5801,7 +5929,9 @@
       <c r="B61" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="17"/>
+      <c r="C61" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D61" s="17" t="s">
         <v>441</v>
       </c>
@@ -5824,7 +5954,9 @@
       <c r="B62" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="17"/>
+      <c r="C62" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D62" s="17" t="s">
         <v>441</v>
       </c>
@@ -5847,7 +5979,9 @@
       <c r="B63" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C63" s="17"/>
+      <c r="C63" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D63" s="17" t="s">
         <v>441</v>
       </c>
@@ -5870,7 +6004,9 @@
       <c r="B64" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C64" s="17"/>
+      <c r="C64" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D64" s="17" t="s">
         <v>441</v>
       </c>
@@ -5894,7 +6030,9 @@
       <c r="B65" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C65" s="17"/>
+      <c r="C65" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D65" s="17" t="s">
         <v>441</v>
       </c>
@@ -5918,7 +6056,9 @@
       <c r="B66" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C66" s="17"/>
+      <c r="C66" s="17" t="s">
+        <v>1150</v>
+      </c>
       <c r="D66" s="17" t="s">
         <v>441</v>
       </c>
@@ -5940,7 +6080,9 @@
       <c r="B67" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C67" s="17"/>
+      <c r="C67" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D67" s="17" t="s">
         <v>441</v>
       </c>
@@ -5963,7 +6105,9 @@
       <c r="B68" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C68" s="17"/>
+      <c r="C68" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D68" s="17" t="s">
         <v>441</v>
       </c>
@@ -5986,7 +6130,9 @@
       <c r="B69" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C69" s="17"/>
+      <c r="C69" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D69" s="17" t="s">
         <v>441</v>
       </c>
@@ -6009,7 +6155,9 @@
       <c r="B70" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="17"/>
+      <c r="C70" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D70" s="17" t="s">
         <v>441</v>
       </c>
@@ -6032,7 +6180,9 @@
       <c r="B71" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C71" s="17"/>
+      <c r="C71" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D71" s="17" t="s">
         <v>441</v>
       </c>
@@ -6055,7 +6205,9 @@
       <c r="B72" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C72" s="17"/>
+      <c r="C72" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D72" s="17" t="s">
         <v>441</v>
       </c>
@@ -6079,7 +6231,9 @@
       <c r="B73" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="17"/>
+      <c r="C73" s="17" t="s">
+        <v>1150</v>
+      </c>
       <c r="D73" s="17" t="s">
         <v>441</v>
       </c>
@@ -6103,7 +6257,9 @@
       <c r="B74" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C74" s="17"/>
+      <c r="C74" s="17" t="s">
+        <v>1150</v>
+      </c>
       <c r="D74" s="17" t="s">
         <v>441</v>
       </c>
@@ -6127,7 +6283,9 @@
       <c r="B75" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C75" s="17"/>
+      <c r="C75" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D75" s="17" t="s">
         <v>441</v>
       </c>
@@ -6151,7 +6309,9 @@
       <c r="B76" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C76" s="17"/>
+      <c r="C76" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D76" s="17" t="s">
         <v>441</v>
       </c>
@@ -6174,7 +6334,9 @@
       <c r="B77" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C77" s="17"/>
+      <c r="C77" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D77" s="17" t="s">
         <v>441</v>
       </c>
@@ -6197,7 +6359,9 @@
       <c r="B78" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C78" s="17"/>
+      <c r="C78" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D78" s="17" t="s">
         <v>441</v>
       </c>
@@ -6240,7 +6404,9 @@
       <c r="B80" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C80" s="17"/>
+      <c r="C80" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D80" s="17" t="s">
         <v>441</v>
       </c>
@@ -6263,7 +6429,9 @@
       <c r="B81" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C81" s="17"/>
+      <c r="C81" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D81" s="17" t="s">
         <v>441</v>
       </c>
@@ -6286,7 +6454,9 @@
       <c r="B82" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C82" s="17"/>
+      <c r="C82" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D82" s="17" t="s">
         <v>441</v>
       </c>
@@ -6309,7 +6479,9 @@
       <c r="B83" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C83" s="17"/>
+      <c r="C83" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D83" s="17" t="s">
         <v>441</v>
       </c>
@@ -6333,7 +6505,9 @@
       <c r="B84" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C84" s="17"/>
+      <c r="C84" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D84" s="17" t="s">
         <v>441</v>
       </c>
@@ -6380,7 +6554,9 @@
       <c r="B86" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D86" s="17" t="s">
         <v>441</v>
       </c>
@@ -6403,7 +6579,9 @@
       <c r="B87" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17" t="s">
+        <v>1150</v>
+      </c>
       <c r="D87" s="17" t="s">
         <v>441</v>
       </c>
@@ -6426,7 +6604,9 @@
       <c r="B88" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C88" s="17"/>
+      <c r="C88" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D88" s="17" t="s">
         <v>441</v>
       </c>
@@ -6449,7 +6629,9 @@
       <c r="B89" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C89" s="17"/>
+      <c r="C89" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D89" s="17" t="s">
         <v>441</v>
       </c>
@@ -6472,7 +6654,9 @@
       <c r="B90" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C90" s="17"/>
+      <c r="C90" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D90" s="17" t="s">
         <v>441</v>
       </c>
@@ -6496,7 +6680,9 @@
       <c r="B91" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C91" s="17"/>
+      <c r="C91" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D91" s="17" t="s">
         <v>441</v>
       </c>
@@ -6520,7 +6706,9 @@
       <c r="B92" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C92" s="17"/>
+      <c r="C92" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D92" s="17" t="s">
         <v>441</v>
       </c>
@@ -6544,7 +6732,9 @@
       <c r="B93" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C93" s="17"/>
+      <c r="C93" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D93" s="17" t="s">
         <v>441</v>
       </c>
@@ -6568,7 +6758,9 @@
       <c r="B94" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C94" s="17"/>
+      <c r="C94" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D94" s="17" t="s">
         <v>441</v>
       </c>
@@ -6592,7 +6784,9 @@
       <c r="B95" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C95" s="17"/>
+      <c r="C95" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D95" s="17" t="s">
         <v>441</v>
       </c>
@@ -6616,7 +6810,9 @@
       <c r="B96" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C96" s="17"/>
+      <c r="C96" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D96" s="17" t="s">
         <v>441</v>
       </c>
@@ -6640,7 +6836,9 @@
       <c r="B97" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D97" s="17" t="s">
         <v>441</v>
       </c>
@@ -6664,7 +6862,9 @@
       <c r="B98" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C98" s="17"/>
+      <c r="C98" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D98" s="17" t="s">
         <v>441</v>
       </c>
@@ -6687,7 +6887,9 @@
       <c r="B99" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C99" s="17"/>
+      <c r="C99" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D99" s="17" t="s">
         <v>441</v>
       </c>
@@ -6711,7 +6913,9 @@
       <c r="B100" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C100" s="17"/>
+      <c r="C100" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D100" s="17" t="s">
         <v>441</v>
       </c>
@@ -6735,7 +6939,9 @@
       <c r="B101" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C101" s="17"/>
+      <c r="C101" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D101" s="17" t="s">
         <v>441</v>
       </c>
@@ -6759,7 +6965,9 @@
       <c r="B102" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D102" s="17" t="s">
         <v>441</v>
       </c>
@@ -6783,7 +6991,9 @@
       <c r="B103" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D103" s="17" t="s">
         <v>441</v>
       </c>
@@ -6807,7 +7017,9 @@
       <c r="B104" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C104" s="17"/>
+      <c r="C104" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D104" s="17" t="s">
         <v>441</v>
       </c>
@@ -6831,7 +7043,9 @@
       <c r="B105" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C105" s="17"/>
+      <c r="C105" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D105" s="17" t="s">
         <v>441</v>
       </c>
@@ -6854,7 +7068,9 @@
       <c r="B106" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C106" s="17"/>
+      <c r="C106" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D106" s="17" t="s">
         <v>441</v>
       </c>
@@ -6877,7 +7093,9 @@
       <c r="B107" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C107" s="17"/>
+      <c r="C107" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D107" s="17" t="s">
         <v>441</v>
       </c>
@@ -6901,7 +7119,9 @@
       <c r="B108" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C108" s="17"/>
+      <c r="C108" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D108" s="17" t="s">
         <v>441</v>
       </c>
@@ -6925,7 +7145,9 @@
       <c r="B109" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C109" s="17"/>
+      <c r="C109" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D109" s="17" t="s">
         <v>441</v>
       </c>
@@ -6949,7 +7171,9 @@
       <c r="B110" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C110" s="17"/>
+      <c r="C110" s="17" t="s">
+        <v>1150</v>
+      </c>
       <c r="D110" s="17" t="s">
         <v>441</v>
       </c>
@@ -6972,7 +7196,9 @@
       <c r="B111" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C111" s="17"/>
+      <c r="C111" s="17" t="s">
+        <v>1150</v>
+      </c>
       <c r="D111" s="17" t="s">
         <v>441</v>
       </c>
@@ -6995,7 +7221,9 @@
       <c r="B112" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C112" s="17"/>
+      <c r="C112" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D112" s="17" t="s">
         <v>441</v>
       </c>
@@ -7018,7 +7246,9 @@
       <c r="B113" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C113" s="17"/>
+      <c r="C113" s="17" t="s">
+        <v>1150</v>
+      </c>
       <c r="D113" s="17" t="s">
         <v>441</v>
       </c>
@@ -7041,7 +7271,9 @@
       <c r="B114" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C114" s="17"/>
+      <c r="C114" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D114" s="17" t="s">
         <v>441</v>
       </c>
@@ -7064,7 +7296,9 @@
       <c r="B115" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="C115" s="32"/>
+      <c r="C115" s="32" t="s">
+        <v>1151</v>
+      </c>
       <c r="D115" s="17" t="s">
         <v>441</v>
       </c>
@@ -7088,7 +7322,9 @@
       <c r="B116" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C116" s="17"/>
+      <c r="C116" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D116" s="17" t="s">
         <v>441</v>
       </c>
@@ -7112,7 +7348,9 @@
       <c r="B117" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C117" s="17"/>
+      <c r="C117" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D117" s="17" t="s">
         <v>441</v>
       </c>
@@ -7136,7 +7374,9 @@
       <c r="B118" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C118" s="17"/>
+      <c r="C118" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D118" s="17" t="s">
         <v>441</v>
       </c>
@@ -7160,7 +7400,9 @@
       <c r="B119" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C119" s="17"/>
+      <c r="C119" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D119" s="17" t="s">
         <v>441</v>
       </c>
@@ -7184,7 +7426,9 @@
       <c r="B120" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C120" s="17"/>
+      <c r="C120" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D120" s="17" t="s">
         <v>441</v>
       </c>
@@ -7208,7 +7452,9 @@
       <c r="B121" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D121" s="17" t="s">
         <v>441</v>
       </c>
@@ -7232,7 +7478,9 @@
       <c r="B122" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C122" s="17"/>
+      <c r="C122" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D122" s="17" t="s">
         <v>441</v>
       </c>
@@ -7256,7 +7504,9 @@
       <c r="B123" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C123" s="17"/>
+      <c r="C123" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D123" s="17" t="s">
         <v>441</v>
       </c>
@@ -7280,7 +7530,9 @@
       <c r="B124" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C124" s="17"/>
+      <c r="C124" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D124" s="17" t="s">
         <v>441</v>
       </c>
@@ -7303,7 +7555,9 @@
       <c r="B125" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C125" s="17"/>
+      <c r="C125" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D125" s="17" t="s">
         <v>441</v>
       </c>
@@ -7327,7 +7581,9 @@
       <c r="B126" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C126" s="17"/>
+      <c r="C126" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D126" s="17" t="s">
         <v>441</v>
       </c>
@@ -7351,7 +7607,9 @@
       <c r="B127" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C127" s="17"/>
+      <c r="C127" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D127" s="17" t="s">
         <v>441</v>
       </c>
@@ -7375,7 +7633,9 @@
       <c r="B128" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C128" s="17"/>
+      <c r="C128" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D128" s="17" t="s">
         <v>441</v>
       </c>
@@ -7398,7 +7658,9 @@
       <c r="B129" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C129" s="17"/>
+      <c r="C129" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D129" s="17" t="s">
         <v>441</v>
       </c>
@@ -7421,7 +7683,9 @@
       <c r="B130" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C130" s="17"/>
+      <c r="C130" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D130" s="17" t="s">
         <v>441</v>
       </c>
@@ -7467,7 +7731,9 @@
       <c r="B132" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C132" s="17"/>
+      <c r="C132" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D132" s="17" t="s">
         <v>441</v>
       </c>
@@ -7510,7 +7776,9 @@
       <c r="B134" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C134" s="17"/>
+      <c r="C134" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D134" s="17" t="s">
         <v>441</v>
       </c>
@@ -7534,7 +7802,9 @@
       <c r="B135" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C135" s="17"/>
+      <c r="C135" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D135" s="17" t="s">
         <v>441</v>
       </c>
@@ -7578,7 +7848,9 @@
       <c r="B137" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="C137" s="31"/>
+      <c r="C137" s="31" t="s">
+        <v>1151</v>
+      </c>
       <c r="D137" s="17" t="s">
         <v>441</v>
       </c>
@@ -7602,7 +7874,9 @@
       <c r="B138" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="C138" s="31"/>
+      <c r="C138" s="31" t="s">
+        <v>1151</v>
+      </c>
       <c r="D138" s="17" t="s">
         <v>441</v>
       </c>
@@ -7626,7 +7900,9 @@
       <c r="B139" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="C139" s="31"/>
+      <c r="C139" s="31" t="s">
+        <v>1151</v>
+      </c>
       <c r="D139" s="17" t="s">
         <v>441</v>
       </c>
@@ -7650,7 +7926,9 @@
       <c r="B140" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="C140" s="31"/>
+      <c r="C140" s="31" t="s">
+        <v>1151</v>
+      </c>
       <c r="D140" s="17" t="s">
         <v>441</v>
       </c>
@@ -7674,7 +7952,9 @@
       <c r="B141" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C141" s="17"/>
+      <c r="C141" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D141" s="17" t="s">
         <v>441</v>
       </c>
@@ -7697,7 +7977,9 @@
       <c r="B142" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C142" s="17"/>
+      <c r="C142" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D142" s="17" t="s">
         <v>441</v>
       </c>
@@ -7720,7 +8002,9 @@
       <c r="B143" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C143" s="17"/>
+      <c r="C143" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D143" s="17" t="s">
         <v>441</v>
       </c>
@@ -7743,7 +8027,9 @@
       <c r="B144" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C144" s="17"/>
+      <c r="C144" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D144" s="17" t="s">
         <v>441</v>
       </c>
@@ -7768,7 +8054,9 @@
       <c r="B145" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C145" s="17"/>
+      <c r="C145" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D145" s="17" t="s">
         <v>441</v>
       </c>
@@ -7791,7 +8079,9 @@
       <c r="B146" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C146" s="17"/>
+      <c r="C146" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D146" s="17" t="s">
         <v>441</v>
       </c>
@@ -7815,7 +8105,9 @@
       <c r="B147" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C147" s="17"/>
+      <c r="C147" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D147" s="17" t="s">
         <v>441</v>
       </c>
@@ -7839,7 +8131,9 @@
       <c r="B148" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C148" s="17"/>
+      <c r="C148" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D148" s="17" t="s">
         <v>441</v>
       </c>
@@ -7863,7 +8157,9 @@
       <c r="B149" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C149" s="17"/>
+      <c r="C149" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D149" s="17" t="s">
         <v>441</v>
       </c>
@@ -7887,7 +8183,9 @@
       <c r="B150" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C150" s="17"/>
+      <c r="C150" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D150" s="17" t="s">
         <v>441</v>
       </c>
@@ -7911,7 +8209,9 @@
       <c r="B151" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C151" s="17"/>
+      <c r="C151" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D151" s="17" t="s">
         <v>441</v>
       </c>
@@ -8014,7 +8314,9 @@
       <c r="B156" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C156" s="17"/>
+      <c r="C156" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D156" s="17" t="s">
         <v>441</v>
       </c>
@@ -8077,7 +8379,9 @@
       <c r="B159" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C159" s="17"/>
+      <c r="C159" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D159" s="17" t="s">
         <v>441</v>
       </c>
@@ -8139,7 +8443,9 @@
       <c r="B162" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C162" s="17"/>
+      <c r="C162" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D162" s="17" t="s">
         <v>441</v>
       </c>
@@ -8162,7 +8468,9 @@
       <c r="B163" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C163" s="17"/>
+      <c r="C163" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D163" s="17" t="s">
         <v>441</v>
       </c>
@@ -8185,7 +8493,9 @@
       <c r="B164" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C164" s="17"/>
+      <c r="C164" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D164" s="17" t="s">
         <v>441</v>
       </c>
@@ -8208,7 +8518,9 @@
       <c r="B165" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C165" s="17"/>
+      <c r="C165" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D165" s="17" t="s">
         <v>441</v>
       </c>
@@ -8231,7 +8543,9 @@
       <c r="B166" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C166" s="17"/>
+      <c r="C166" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D166" s="17" t="s">
         <v>441</v>
       </c>
@@ -8254,7 +8568,9 @@
       <c r="B167" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C167" s="17"/>
+      <c r="C167" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D167" s="17" t="s">
         <v>441</v>
       </c>
@@ -8277,7 +8593,9 @@
       <c r="B168" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C168" s="17"/>
+      <c r="C168" s="17" t="s">
+        <v>1153</v>
+      </c>
       <c r="D168" s="17" t="s">
         <v>441</v>
       </c>
@@ -8300,7 +8618,9 @@
       <c r="B169" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17" t="s">
+        <v>1150</v>
+      </c>
       <c r="D169" s="17" t="s">
         <v>441</v>
       </c>
@@ -8323,7 +8643,9 @@
       <c r="B170" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C170" s="17"/>
+      <c r="C170" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D170" s="17" t="s">
         <v>441</v>
       </c>
@@ -8346,7 +8668,9 @@
       <c r="B171" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C171" s="17"/>
+      <c r="C171" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D171" s="17" t="s">
         <v>441</v>
       </c>
@@ -8389,7 +8713,9 @@
       <c r="B173" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C173" s="17"/>
+      <c r="C173" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D173" s="17" t="s">
         <v>441</v>
       </c>
@@ -8413,7 +8739,9 @@
       <c r="B174" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C174" s="17"/>
+      <c r="C174" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D174" s="17" t="s">
         <v>441</v>
       </c>
@@ -8437,7 +8765,9 @@
       <c r="B175" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C175" s="17"/>
+      <c r="C175" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D175" s="17" t="s">
         <v>441</v>
       </c>
@@ -8461,7 +8791,9 @@
       <c r="B176" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C176" s="17"/>
+      <c r="C176" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D176" s="17" t="s">
         <v>441</v>
       </c>
@@ -8485,7 +8817,9 @@
       <c r="B177" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C177" s="17"/>
+      <c r="C177" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D177" s="17" t="s">
         <v>441</v>
       </c>
@@ -8509,7 +8843,9 @@
       <c r="B178" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C178" s="17"/>
+      <c r="C178" s="17" t="s">
+        <v>1153</v>
+      </c>
       <c r="D178" s="17" t="s">
         <v>441</v>
       </c>
@@ -8533,7 +8869,9 @@
       <c r="B179" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C179" s="17"/>
+      <c r="C179" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D179" s="17" t="s">
         <v>441</v>
       </c>
@@ -8557,7 +8895,9 @@
       <c r="B180" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C180" s="17"/>
+      <c r="C180" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D180" s="17" t="s">
         <v>441</v>
       </c>
@@ -8581,7 +8921,9 @@
       <c r="B181" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C181" s="17"/>
+      <c r="C181" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D181" s="17" t="s">
         <v>441</v>
       </c>
@@ -8605,7 +8947,9 @@
       <c r="B182" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C182" s="17"/>
+      <c r="C182" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D182" s="17" t="s">
         <v>441</v>
       </c>
@@ -8628,7 +8972,9 @@
       <c r="B183" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C183" s="17"/>
+      <c r="C183" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D183" s="17" t="s">
         <v>441</v>
       </c>
@@ -8652,7 +8998,9 @@
       <c r="B184" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C184" s="17"/>
+      <c r="C184" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D184" s="17" t="s">
         <v>441</v>
       </c>
@@ -8676,7 +9024,9 @@
       <c r="B185" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C185" s="17"/>
+      <c r="C185" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D185" s="17" t="s">
         <v>441</v>
       </c>
@@ -8700,7 +9050,9 @@
       <c r="B186" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C186" s="17"/>
+      <c r="C186" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D186" s="17" t="s">
         <v>441</v>
       </c>
@@ -8724,7 +9076,9 @@
       <c r="B187" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C187" s="17"/>
+      <c r="C187" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D187" s="17" t="s">
         <v>441</v>
       </c>
@@ -8748,7 +9102,9 @@
       <c r="B188" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C188" s="17"/>
+      <c r="C188" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D188" s="17" t="s">
         <v>441</v>
       </c>
@@ -8772,7 +9128,9 @@
       <c r="B189" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C189" s="17"/>
+      <c r="C189" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D189" s="17" t="s">
         <v>441</v>
       </c>
@@ -8795,7 +9153,9 @@
       <c r="B190" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C190" s="17"/>
+      <c r="C190" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D190" s="17" t="s">
         <v>441</v>
       </c>
@@ -8819,7 +9179,9 @@
       <c r="B191" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C191" s="17"/>
+      <c r="C191" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D191" s="17" t="s">
         <v>441</v>
       </c>
@@ -8843,7 +9205,9 @@
       <c r="B192" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C192" s="17"/>
+      <c r="C192" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D192" s="17" t="s">
         <v>441</v>
       </c>
@@ -8867,7 +9231,9 @@
       <c r="B193" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C193" s="17"/>
+      <c r="C193" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D193" s="17" t="s">
         <v>441</v>
       </c>
@@ -8891,7 +9257,9 @@
       <c r="B194" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C194" s="17"/>
+      <c r="C194" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D194" s="17" t="s">
         <v>441</v>
       </c>
@@ -8914,7 +9282,9 @@
       <c r="B195" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C195" s="17"/>
+      <c r="C195" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D195" s="17" t="s">
         <v>441</v>
       </c>
@@ -8938,7 +9308,9 @@
       <c r="B196" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C196" s="17"/>
+      <c r="C196" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D196" s="17" t="s">
         <v>441</v>
       </c>
@@ -8962,7 +9334,9 @@
       <c r="B197" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="C197" s="17"/>
+      <c r="C197" s="17" t="s">
+        <v>1153</v>
+      </c>
       <c r="D197" s="17" t="s">
         <v>441</v>
       </c>
@@ -8986,7 +9360,9 @@
       <c r="B198" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C198" s="17"/>
+      <c r="C198" s="17" t="s">
+        <v>1153</v>
+      </c>
       <c r="D198" s="17" t="s">
         <v>441</v>
       </c>
@@ -9010,7 +9386,9 @@
       <c r="B199" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C199" s="17"/>
+      <c r="C199" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D199" s="17" t="s">
         <v>441</v>
       </c>
@@ -9034,7 +9412,9 @@
       <c r="B200" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C200" s="17"/>
+      <c r="C200" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D200" s="17" t="s">
         <v>441</v>
       </c>
@@ -9058,7 +9438,9 @@
       <c r="B201" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="C201" s="17"/>
+      <c r="C201" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D201" s="17" t="s">
         <v>441</v>
       </c>
@@ -9081,7 +9463,9 @@
       <c r="B202" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C202" s="17"/>
+      <c r="C202" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D202" s="17" t="s">
         <v>441</v>
       </c>
@@ -9105,7 +9489,9 @@
       <c r="B203" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C203" s="17"/>
+      <c r="C203" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D203" s="17" t="s">
         <v>441</v>
       </c>
@@ -9128,7 +9514,9 @@
       <c r="B204" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C204" s="17"/>
+      <c r="C204" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D204" s="17" t="s">
         <v>441</v>
       </c>
@@ -9152,7 +9540,9 @@
       <c r="B205" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C205" s="17"/>
+      <c r="C205" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D205" s="17" t="s">
         <v>441</v>
       </c>
@@ -9176,7 +9566,9 @@
       <c r="B206" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="C206" s="17"/>
+      <c r="C206" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D206" s="17" t="s">
         <v>441</v>
       </c>
@@ -9200,7 +9592,9 @@
       <c r="B207" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C207" s="17"/>
+      <c r="C207" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D207" s="17" t="s">
         <v>441</v>
       </c>
@@ -9224,7 +9618,9 @@
       <c r="B208" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C208" s="17"/>
+      <c r="C208" s="17" t="s">
+        <v>1153</v>
+      </c>
       <c r="D208" s="17" t="s">
         <v>441</v>
       </c>
@@ -9248,7 +9644,9 @@
       <c r="B209" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="C209" s="17"/>
+      <c r="C209" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D209" s="17" t="s">
         <v>441</v>
       </c>
@@ -9272,7 +9670,9 @@
       <c r="B210" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="C210" s="17"/>
+      <c r="C210" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D210" s="17" t="s">
         <v>441</v>
       </c>
@@ -9295,7 +9695,9 @@
       <c r="B211" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C211" s="17"/>
+      <c r="C211" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D211" s="17" t="s">
         <v>441</v>
       </c>
@@ -9319,7 +9721,9 @@
       <c r="B212" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C212" s="17"/>
+      <c r="C212" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D212" s="17" t="s">
         <v>441</v>
       </c>
@@ -9343,7 +9747,9 @@
       <c r="B213" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C213" s="17"/>
+      <c r="C213" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D213" s="17" t="s">
         <v>441</v>
       </c>
@@ -9367,7 +9773,9 @@
       <c r="B214" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C214" s="17"/>
+      <c r="C214" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D214" s="17" t="s">
         <v>441</v>
       </c>
@@ -9391,7 +9799,9 @@
       <c r="B215" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C215" s="17"/>
+      <c r="C215" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D215" s="17" t="s">
         <v>441</v>
       </c>
@@ -9415,7 +9825,9 @@
       <c r="B216" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C216" s="17"/>
+      <c r="C216" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D216" s="17" t="s">
         <v>441</v>
       </c>
@@ -9439,7 +9851,9 @@
       <c r="B217" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C217" s="17"/>
+      <c r="C217" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D217" s="17" t="s">
         <v>441</v>
       </c>
@@ -9462,7 +9876,9 @@
       <c r="B218" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C218" s="17"/>
+      <c r="C218" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D218" s="17" t="s">
         <v>441</v>
       </c>
@@ -9486,7 +9902,9 @@
       <c r="B219" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C219" s="17"/>
+      <c r="C219" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D219" s="17" t="s">
         <v>441</v>
       </c>
@@ -9510,7 +9928,9 @@
       <c r="B220" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C220" s="17"/>
+      <c r="C220" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D220" s="17" t="s">
         <v>441</v>
       </c>
@@ -9534,7 +9954,9 @@
       <c r="B221" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C221" s="17"/>
+      <c r="C221" s="17" t="s">
+        <v>1153</v>
+      </c>
       <c r="D221" s="17" t="s">
         <v>441</v>
       </c>
@@ -9558,7 +9980,9 @@
       <c r="B222" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C222" s="17"/>
+      <c r="C222" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D222" s="17" t="s">
         <v>441</v>
       </c>
@@ -9582,7 +10006,9 @@
       <c r="B223" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C223" s="17"/>
+      <c r="C223" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D223" s="17" t="s">
         <v>441</v>
       </c>
@@ -9606,7 +10032,9 @@
       <c r="B224" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C224" s="17"/>
+      <c r="C224" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D224" s="17" t="s">
         <v>441</v>
       </c>
@@ -9630,7 +10058,9 @@
       <c r="B225" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C225" s="17"/>
+      <c r="C225" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D225" s="17" t="s">
         <v>441</v>
       </c>
@@ -9653,7 +10083,9 @@
       <c r="B226" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C226" s="17"/>
+      <c r="C226" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D226" s="17" t="s">
         <v>441</v>
       </c>
@@ -9677,7 +10109,9 @@
       <c r="B227" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C227" s="17"/>
+      <c r="C227" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D227" s="17" t="s">
         <v>441</v>
       </c>
@@ -9701,7 +10135,9 @@
       <c r="B228" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C228" s="17"/>
+      <c r="C228" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D228" s="17" t="s">
         <v>441</v>
       </c>
@@ -9725,7 +10161,9 @@
       <c r="B229" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C229" s="17"/>
+      <c r="C229" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D229" s="17" t="s">
         <v>441</v>
       </c>
@@ -9749,7 +10187,9 @@
       <c r="B230" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C230" s="17"/>
+      <c r="C230" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D230" s="17" t="s">
         <v>441</v>
       </c>
@@ -9772,7 +10212,9 @@
       <c r="B231" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C231" s="17"/>
+      <c r="C231" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D231" s="17" t="s">
         <v>441</v>
       </c>
@@ -9796,7 +10238,9 @@
       <c r="B232" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C232" s="17"/>
+      <c r="C232" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D232" s="17" t="s">
         <v>441</v>
       </c>
@@ -9820,7 +10264,9 @@
       <c r="B233" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C233" s="17"/>
+      <c r="C233" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D233" s="17" t="s">
         <v>441</v>
       </c>
@@ -9844,7 +10290,9 @@
       <c r="B234" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C234" s="17"/>
+      <c r="C234" s="17" t="s">
+        <v>1151</v>
+      </c>
       <c r="D234" s="17" t="s">
         <v>441</v>
       </c>
@@ -9868,7 +10316,9 @@
       <c r="B235" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="C235" s="17"/>
+      <c r="C235" s="17" t="s">
+        <v>1153</v>
+      </c>
       <c r="D235" s="17" t="s">
         <v>441</v>
       </c>
@@ -9892,7 +10342,9 @@
       <c r="B236" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="C236" s="17"/>
+      <c r="C236" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D236" s="17" t="s">
         <v>441</v>
       </c>
@@ -9915,7 +10367,9 @@
       <c r="B237" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C237" s="33"/>
+      <c r="C237" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D237" s="17" t="s">
         <v>441</v>
       </c>
@@ -9937,7 +10391,9 @@
       <c r="B238" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C238" s="33"/>
+      <c r="C238" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D238" s="17" t="s">
         <v>441</v>
       </c>
@@ -9959,7 +10415,9 @@
       <c r="B239" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C239" s="33"/>
+      <c r="C239" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D239" s="17" t="s">
         <v>441</v>
       </c>
@@ -9981,7 +10439,9 @@
       <c r="B240" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C240" s="33"/>
+      <c r="C240" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D240" s="17" t="s">
         <v>441</v>
       </c>
@@ -10003,7 +10463,9 @@
       <c r="B241" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C241" s="33"/>
+      <c r="C241" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D241" s="17" t="s">
         <v>441</v>
       </c>
@@ -10025,7 +10487,9 @@
       <c r="B242" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C242" s="33"/>
+      <c r="C242" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D242" s="17" t="s">
         <v>441</v>
       </c>
@@ -10047,7 +10511,9 @@
       <c r="B243" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C243" s="33"/>
+      <c r="C243" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D243" s="17" t="s">
         <v>441</v>
       </c>
@@ -10069,7 +10535,9 @@
       <c r="B244" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C244" s="33"/>
+      <c r="C244" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D244" s="17" t="s">
         <v>441</v>
       </c>
@@ -10091,7 +10559,9 @@
       <c r="B245" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C245" s="33"/>
+      <c r="C245" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D245" s="17" t="s">
         <v>441</v>
       </c>
@@ -10113,7 +10583,9 @@
       <c r="B246" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C246" s="33"/>
+      <c r="C246" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D246" s="17" t="s">
         <v>441</v>
       </c>
@@ -10135,7 +10607,9 @@
       <c r="B247" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C247" s="33"/>
+      <c r="C247" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D247" s="17" t="s">
         <v>441</v>
       </c>
@@ -10157,7 +10631,9 @@
       <c r="B248" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C248" s="33"/>
+      <c r="C248" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D248" s="17" t="s">
         <v>441</v>
       </c>
@@ -10179,7 +10655,9 @@
       <c r="B249" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C249" s="33"/>
+      <c r="C249" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D249" s="17" t="s">
         <v>441</v>
       </c>
@@ -10201,7 +10679,9 @@
       <c r="B250" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C250" s="33"/>
+      <c r="C250" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D250" s="17" t="s">
         <v>441</v>
       </c>
@@ -10223,7 +10703,9 @@
       <c r="B251" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C251" s="33"/>
+      <c r="C251" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D251" s="17" t="s">
         <v>441</v>
       </c>
@@ -10245,7 +10727,9 @@
       <c r="B252" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C252" s="33"/>
+      <c r="C252" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D252" s="17" t="s">
         <v>441</v>
       </c>
@@ -10267,7 +10751,9 @@
       <c r="B253" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C253" s="33"/>
+      <c r="C253" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D253" s="17" t="s">
         <v>441</v>
       </c>
@@ -10289,7 +10775,9 @@
       <c r="B254" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C254" s="33"/>
+      <c r="C254" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D254" s="17" t="s">
         <v>441</v>
       </c>
@@ -10311,7 +10799,9 @@
       <c r="B255" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C255" s="33"/>
+      <c r="C255" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D255" s="17" t="s">
         <v>441</v>
       </c>
@@ -10333,7 +10823,9 @@
       <c r="B256" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C256" s="33"/>
+      <c r="C256" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D256" s="17" t="s">
         <v>441</v>
       </c>
@@ -10355,7 +10847,9 @@
       <c r="B257" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C257" s="33"/>
+      <c r="C257" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D257" s="17" t="s">
         <v>441</v>
       </c>
@@ -10377,7 +10871,9 @@
       <c r="B258" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C258" s="33"/>
+      <c r="C258" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D258" s="17" t="s">
         <v>441</v>
       </c>
@@ -10399,7 +10895,9 @@
       <c r="B259" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C259" s="33"/>
+      <c r="C259" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D259" s="17" t="s">
         <v>441</v>
       </c>
@@ -10421,7 +10919,9 @@
       <c r="B260" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C260" s="33"/>
+      <c r="C260" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D260" s="17" t="s">
         <v>441</v>
       </c>
@@ -10443,7 +10943,9 @@
       <c r="B261" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C261" s="33"/>
+      <c r="C261" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D261" s="17" t="s">
         <v>441</v>
       </c>
@@ -10465,7 +10967,9 @@
       <c r="B262" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C262" s="33"/>
+      <c r="C262" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D262" s="17" t="s">
         <v>441</v>
       </c>
@@ -10487,7 +10991,9 @@
       <c r="B263" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C263" s="33"/>
+      <c r="C263" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D263" s="17" t="s">
         <v>441</v>
       </c>
@@ -10509,7 +11015,9 @@
       <c r="B264" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C264" s="33"/>
+      <c r="C264" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D264" s="17" t="s">
         <v>441</v>
       </c>
@@ -10531,7 +11039,9 @@
       <c r="B265" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C265" s="33"/>
+      <c r="C265" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D265" s="17" t="s">
         <v>441</v>
       </c>
@@ -10553,7 +11063,9 @@
       <c r="B266" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C266" s="33"/>
+      <c r="C266" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D266" s="17" t="s">
         <v>441</v>
       </c>
@@ -10575,7 +11087,9 @@
       <c r="B267" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C267" s="33"/>
+      <c r="C267" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D267" s="17" t="s">
         <v>441</v>
       </c>
@@ -10597,7 +11111,9 @@
       <c r="B268" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C268" s="33"/>
+      <c r="C268" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D268" s="17" t="s">
         <v>441</v>
       </c>
@@ -10619,7 +11135,9 @@
       <c r="B269" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C269" s="33"/>
+      <c r="C269" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D269" s="17" t="s">
         <v>441</v>
       </c>
@@ -10641,7 +11159,9 @@
       <c r="B270" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C270" s="33"/>
+      <c r="C270" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D270" s="17" t="s">
         <v>441</v>
       </c>
@@ -10663,7 +11183,9 @@
       <c r="B271" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C271" s="33"/>
+      <c r="C271" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D271" s="17" t="s">
         <v>441</v>
       </c>
@@ -10685,7 +11207,9 @@
       <c r="B272" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C272" s="33"/>
+      <c r="C272" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D272" s="17" t="s">
         <v>441</v>
       </c>
@@ -10707,7 +11231,9 @@
       <c r="B273" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C273" s="33"/>
+      <c r="C273" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D273" s="17" t="s">
         <v>441</v>
       </c>
@@ -10729,7 +11255,9 @@
       <c r="B274" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="C274" s="33"/>
+      <c r="C274" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D274" s="17" t="s">
         <v>441</v>
       </c>
@@ -10751,7 +11279,9 @@
       <c r="B275" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="C275" s="17"/>
+      <c r="C275" s="17" t="s">
+        <v>1152</v>
+      </c>
       <c r="D275" s="17" t="s">
         <v>441</v>
       </c>
@@ -10773,7 +11303,9 @@
       <c r="B276" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="C276" s="33"/>
+      <c r="C276" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D276" s="17" t="s">
         <v>441</v>
       </c>
@@ -10795,7 +11327,9 @@
       <c r="B277" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="C277" s="33"/>
+      <c r="C277" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D277" s="17" t="s">
         <v>441</v>
       </c>
@@ -10817,7 +11351,9 @@
       <c r="B278" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C278" s="33"/>
+      <c r="C278" s="33" t="s">
+        <v>1152</v>
+      </c>
       <c r="D278" s="17" t="s">
         <v>441</v>
       </c>
@@ -10839,7 +11375,9 @@
       <c r="B279" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C279" s="33"/>
+      <c r="C279" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D279" s="17" t="s">
         <v>442</v>
       </c>
@@ -10861,7 +11399,9 @@
       <c r="B280" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C280" s="33"/>
+      <c r="C280" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D280" s="17" t="s">
         <v>442</v>
       </c>
@@ -10883,7 +11423,9 @@
       <c r="B281" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C281" s="33"/>
+      <c r="C281" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D281" s="17" t="s">
         <v>442</v>
       </c>
@@ -10905,7 +11447,9 @@
       <c r="B282" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C282" s="33"/>
+      <c r="C282" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D282" s="17" t="s">
         <v>442</v>
       </c>
@@ -10927,7 +11471,9 @@
       <c r="B283" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C283" s="33"/>
+      <c r="C283" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D283" s="17" t="s">
         <v>442</v>
       </c>
@@ -10949,7 +11495,9 @@
       <c r="B284" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C284" s="33"/>
+      <c r="C284" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D284" s="17" t="s">
         <v>442</v>
       </c>
@@ -10971,7 +11519,9 @@
       <c r="B285" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C285" s="33"/>
+      <c r="C285" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D285" s="17" t="s">
         <v>442</v>
       </c>
@@ -10993,7 +11543,9 @@
       <c r="B286" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C286" s="33"/>
+      <c r="C286" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D286" s="17" t="s">
         <v>442</v>
       </c>
@@ -11015,7 +11567,9 @@
       <c r="B287" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="C287" s="33"/>
+      <c r="C287" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D287" s="17" t="s">
         <v>442</v>
       </c>
@@ -11037,7 +11591,9 @@
       <c r="B288" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C288" s="33"/>
+      <c r="C288" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D288" s="17" t="s">
         <v>442</v>
       </c>
@@ -11059,7 +11615,9 @@
       <c r="B289" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C289" s="33"/>
+      <c r="C289" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D289" s="17" t="s">
         <v>442</v>
       </c>
@@ -11081,7 +11639,9 @@
       <c r="B290" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C290" s="33"/>
+      <c r="C290" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D290" s="17" t="s">
         <v>442</v>
       </c>
@@ -11103,7 +11663,9 @@
       <c r="B291" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C291" s="33"/>
+      <c r="C291" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D291" s="17" t="s">
         <v>442</v>
       </c>
@@ -11125,7 +11687,9 @@
       <c r="B292" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="C292" s="33"/>
+      <c r="C292" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D292" s="17" t="s">
         <v>442</v>
       </c>
@@ -11147,7 +11711,9 @@
       <c r="B293" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C293" s="33"/>
+      <c r="C293" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D293" s="17" t="s">
         <v>442</v>
       </c>
@@ -11169,7 +11735,9 @@
       <c r="B294" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="C294" s="33"/>
+      <c r="C294" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D294" s="17" t="s">
         <v>442</v>
       </c>
@@ -11191,7 +11759,9 @@
       <c r="B295" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="C295" s="33"/>
+      <c r="C295" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D295" s="17" t="s">
         <v>442</v>
       </c>
@@ -11213,7 +11783,9 @@
       <c r="B296" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="C296" s="33"/>
+      <c r="C296" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D296" s="17" t="s">
         <v>442</v>
       </c>
@@ -11235,7 +11807,9 @@
       <c r="B297" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="C297" s="33"/>
+      <c r="C297" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D297" s="17" t="s">
         <v>442</v>
       </c>
@@ -11257,7 +11831,9 @@
       <c r="B298" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="C298" s="33"/>
+      <c r="C298" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D298" s="17" t="s">
         <v>442</v>
       </c>
@@ -11279,7 +11855,9 @@
       <c r="B299" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C299" s="33"/>
+      <c r="C299" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D299" s="17" t="s">
         <v>442</v>
       </c>
@@ -11301,7 +11879,9 @@
       <c r="B300" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C300" s="33"/>
+      <c r="C300" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D300" s="17" t="s">
         <v>442</v>
       </c>
@@ -11323,7 +11903,9 @@
       <c r="B301" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="C301" s="33"/>
+      <c r="C301" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D301" s="17" t="s">
         <v>442</v>
       </c>
@@ -11345,7 +11927,9 @@
       <c r="B302" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="C302" s="33"/>
+      <c r="C302" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D302" s="17" t="s">
         <v>442</v>
       </c>
@@ -11367,7 +11951,9 @@
       <c r="B303" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="C303" s="33"/>
+      <c r="C303" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D303" s="17" t="s">
         <v>442</v>
       </c>
@@ -11389,7 +11975,9 @@
       <c r="B304" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="C304" s="33"/>
+      <c r="C304" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D304" s="17" t="s">
         <v>442</v>
       </c>
@@ -11411,7 +11999,9 @@
       <c r="B305" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="C305" s="33"/>
+      <c r="C305" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D305" s="17" t="s">
         <v>442</v>
       </c>
@@ -11433,7 +12023,9 @@
       <c r="B306" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="C306" s="33"/>
+      <c r="C306" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D306" s="17" t="s">
         <v>442</v>
       </c>
@@ -11455,7 +12047,9 @@
       <c r="B307" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C307" s="33"/>
+      <c r="C307" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D307" s="17" t="s">
         <v>442</v>
       </c>
@@ -11477,7 +12071,9 @@
       <c r="B308" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C308" s="33"/>
+      <c r="C308" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D308" s="17" t="s">
         <v>442</v>
       </c>
@@ -11499,7 +12095,9 @@
       <c r="B309" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C309" s="33"/>
+      <c r="C309" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D309" s="17" t="s">
         <v>442</v>
       </c>
@@ -11521,7 +12119,9 @@
       <c r="B310" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C310" s="33"/>
+      <c r="C310" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D310" s="17" t="s">
         <v>442</v>
       </c>
@@ -11543,7 +12143,9 @@
       <c r="B311" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C311" s="33"/>
+      <c r="C311" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D311" s="17" t="s">
         <v>442</v>
       </c>
@@ -11565,7 +12167,9 @@
       <c r="B312" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C312" s="33"/>
+      <c r="C312" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D312" s="17" t="s">
         <v>442</v>
       </c>
@@ -11587,7 +12191,9 @@
       <c r="B313" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="C313" s="33"/>
+      <c r="C313" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D313" s="17" t="s">
         <v>442</v>
       </c>
@@ -11609,7 +12215,9 @@
       <c r="B314" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C314" s="33"/>
+      <c r="C314" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D314" s="17" t="s">
         <v>442</v>
       </c>
@@ -11631,7 +12239,9 @@
       <c r="B315" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C315" s="33"/>
+      <c r="C315" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D315" s="17" t="s">
         <v>442</v>
       </c>
@@ -11653,7 +12263,9 @@
       <c r="B316" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C316" s="33"/>
+      <c r="C316" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D316" s="17" t="s">
         <v>442</v>
       </c>
@@ -11675,7 +12287,9 @@
       <c r="B317" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="C317" s="33"/>
+      <c r="C317" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D317" s="17" t="s">
         <v>442</v>
       </c>
@@ -11697,7 +12311,9 @@
       <c r="B318" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="C318" s="33"/>
+      <c r="C318" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D318" s="17" t="s">
         <v>442</v>
       </c>
@@ -11719,7 +12335,9 @@
       <c r="B319" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C319" s="33"/>
+      <c r="C319" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D319" s="17" t="s">
         <v>442</v>
       </c>
@@ -11741,7 +12359,9 @@
       <c r="B320" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C320" s="33"/>
+      <c r="C320" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D320" s="17" t="s">
         <v>442</v>
       </c>
@@ -11763,7 +12383,9 @@
       <c r="B321" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C321" s="33"/>
+      <c r="C321" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D321" s="17" t="s">
         <v>442</v>
       </c>
@@ -11785,7 +12407,9 @@
       <c r="B322" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C322" s="33"/>
+      <c r="C322" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D322" s="17" t="s">
         <v>442</v>
       </c>
@@ -11807,7 +12431,9 @@
       <c r="B323" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="C323" s="33"/>
+      <c r="C323" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D323" s="17" t="s">
         <v>442</v>
       </c>
@@ -11829,7 +12455,9 @@
       <c r="B324" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C324" s="33"/>
+      <c r="C324" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D324" s="17" t="s">
         <v>442</v>
       </c>
@@ -11851,7 +12479,9 @@
       <c r="B325" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C325" s="33"/>
+      <c r="C325" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D325" s="17" t="s">
         <v>442</v>
       </c>
@@ -11873,7 +12503,9 @@
       <c r="B326" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="C326" s="33"/>
+      <c r="C326" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D326" s="17" t="s">
         <v>442</v>
       </c>
@@ -11895,7 +12527,9 @@
       <c r="B327" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="C327" s="33"/>
+      <c r="C327" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D327" s="17" t="s">
         <v>442</v>
       </c>
@@ -11917,7 +12551,9 @@
       <c r="B328" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="C328" s="33"/>
+      <c r="C328" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D328" s="17" t="s">
         <v>442</v>
       </c>
@@ -11939,7 +12575,9 @@
       <c r="B329" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="C329" s="33"/>
+      <c r="C329" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D329" s="17" t="s">
         <v>442</v>
       </c>
@@ -11961,7 +12599,9 @@
       <c r="B330" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C330" s="33"/>
+      <c r="C330" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D330" s="17" t="s">
         <v>442</v>
       </c>
@@ -11983,7 +12623,9 @@
       <c r="B331" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C331" s="33"/>
+      <c r="C331" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D331" s="17" t="s">
         <v>442</v>
       </c>
@@ -12005,7 +12647,9 @@
       <c r="B332" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C332" s="33"/>
+      <c r="C332" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D332" s="17" t="s">
         <v>442</v>
       </c>
@@ -12027,7 +12671,9 @@
       <c r="B333" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C333" s="33"/>
+      <c r="C333" s="33" t="s">
+        <v>1151</v>
+      </c>
       <c r="D333" s="17" t="s">
         <v>442</v>
       </c>
@@ -12049,7 +12695,9 @@
       <c r="B334" s="28" t="s">
         <v>579</v>
       </c>
-      <c r="C334" s="34"/>
+      <c r="C334" s="34" t="s">
+        <v>1151</v>
+      </c>
       <c r="D334" s="29" t="s">
         <v>442</v>
       </c>
@@ -12071,7 +12719,9 @@
       <c r="B335" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="C335" s="1"/>
+      <c r="C335" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D335" s="4" t="s">
         <v>441</v>
       </c>
@@ -12093,7 +12743,9 @@
       <c r="B336" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="C336" s="1"/>
+      <c r="C336" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D336" s="4" t="s">
         <v>441</v>
       </c>
@@ -12115,7 +12767,9 @@
       <c r="B337" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="C337" s="1"/>
+      <c r="C337" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D337" s="4" t="s">
         <v>441</v>
       </c>
@@ -12137,7 +12791,9 @@
       <c r="B338" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="C338" s="1"/>
+      <c r="C338" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D338" s="4" t="s">
         <v>441</v>
       </c>
@@ -12159,7 +12815,9 @@
       <c r="B339" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="C339" s="1"/>
+      <c r="C339" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D339" s="4" t="s">
         <v>441</v>
       </c>
@@ -12181,7 +12839,9 @@
       <c r="B340" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="C340" s="1"/>
+      <c r="C340" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D340" s="4" t="s">
         <v>441</v>
       </c>
@@ -12203,7 +12863,9 @@
       <c r="B341" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="C341" s="1"/>
+      <c r="C341" s="1" t="s">
+        <v>1150</v>
+      </c>
       <c r="D341" s="4" t="s">
         <v>441</v>
       </c>
@@ -12225,7 +12887,9 @@
       <c r="B342" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="C342" s="1"/>
+      <c r="C342" s="1" t="s">
+        <v>1150</v>
+      </c>
       <c r="D342" s="4" t="s">
         <v>441</v>
       </c>
@@ -12247,7 +12911,9 @@
       <c r="B343" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="C343" s="1"/>
+      <c r="C343" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D343" s="4" t="s">
         <v>441</v>
       </c>
@@ -12269,7 +12935,9 @@
       <c r="B344" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="C344" s="1"/>
+      <c r="C344" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D344" s="4" t="s">
         <v>441</v>
       </c>
@@ -12291,7 +12959,9 @@
       <c r="B345" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="C345" s="1"/>
+      <c r="C345" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D345" s="4" t="s">
         <v>441</v>
       </c>
@@ -12313,7 +12983,9 @@
       <c r="B346" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="C346" s="1"/>
+      <c r="C346" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D346" s="4" t="s">
         <v>441</v>
       </c>
@@ -12335,7 +13007,9 @@
       <c r="B347" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="C347" s="1"/>
+      <c r="C347" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D347" s="4" t="s">
         <v>441</v>
       </c>
@@ -12357,7 +13031,9 @@
       <c r="B348" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C348" s="1"/>
+      <c r="C348" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D348" s="4" t="s">
         <v>441</v>
       </c>
@@ -12379,7 +13055,9 @@
       <c r="B349" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="C349" s="1"/>
+      <c r="C349" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D349" s="4" t="s">
         <v>441</v>
       </c>
@@ -12401,7 +13079,9 @@
       <c r="B350" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="C350" s="1"/>
+      <c r="C350" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D350" s="4" t="s">
         <v>441</v>
       </c>
@@ -12423,7 +13103,9 @@
       <c r="B351" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="C351" s="1"/>
+      <c r="C351" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D351" s="4" t="s">
         <v>441</v>
       </c>
@@ -12445,7 +13127,9 @@
       <c r="B352" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="C352" s="1"/>
+      <c r="C352" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D352" s="4" t="s">
         <v>441</v>
       </c>
@@ -12467,7 +13151,9 @@
       <c r="B353" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="C353" s="1"/>
+      <c r="C353" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D353" s="4" t="s">
         <v>441</v>
       </c>
@@ -12489,7 +13175,9 @@
       <c r="B354" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="C354" s="1"/>
+      <c r="C354" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D354" s="4" t="s">
         <v>441</v>
       </c>
@@ -12511,7 +13199,9 @@
       <c r="B355" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="C355" s="1"/>
+      <c r="C355" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D355" s="4" t="s">
         <v>441</v>
       </c>
@@ -12533,7 +13223,9 @@
       <c r="B356" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="C356" s="1"/>
+      <c r="C356" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D356" s="4" t="s">
         <v>441</v>
       </c>
@@ -12555,7 +13247,9 @@
       <c r="B357" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="C357" s="1"/>
+      <c r="C357" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D357" s="4" t="s">
         <v>441</v>
       </c>
@@ -12577,7 +13271,9 @@
       <c r="B358" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="C358" s="1"/>
+      <c r="C358" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D358" s="4" t="s">
         <v>441</v>
       </c>
@@ -12599,7 +13295,9 @@
       <c r="B359" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C359" s="1"/>
+      <c r="C359" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D359" s="4" t="s">
         <v>441</v>
       </c>
@@ -12621,7 +13319,9 @@
       <c r="B360" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="C360" s="1"/>
+      <c r="C360" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D360" s="4" t="s">
         <v>441</v>
       </c>
@@ -12643,7 +13343,9 @@
       <c r="B361" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="C361" s="1"/>
+      <c r="C361" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D361" s="4" t="s">
         <v>441</v>
       </c>
@@ -12665,7 +13367,9 @@
       <c r="B362" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="C362" s="1"/>
+      <c r="C362" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D362" s="4" t="s">
         <v>441</v>
       </c>
@@ -12687,7 +13391,9 @@
       <c r="B363" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="C363" s="1"/>
+      <c r="C363" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D363" s="4" t="s">
         <v>441</v>
       </c>
@@ -12709,7 +13415,9 @@
       <c r="B364" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="C364" s="1"/>
+      <c r="C364" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D364" s="4" t="s">
         <v>441</v>
       </c>
@@ -12731,7 +13439,9 @@
       <c r="B365" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="C365" s="1"/>
+      <c r="C365" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D365" s="4" t="s">
         <v>441</v>
       </c>
@@ -12753,7 +13463,9 @@
       <c r="B366" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="C366" s="1"/>
+      <c r="C366" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D366" s="4" t="s">
         <v>441</v>
       </c>
@@ -12775,7 +13487,9 @@
       <c r="B367" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="C367" s="1"/>
+      <c r="C367" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D367" s="4" t="s">
         <v>441</v>
       </c>
@@ -12797,7 +13511,9 @@
       <c r="B368" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="C368" s="1"/>
+      <c r="C368" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D368" s="4" t="s">
         <v>441</v>
       </c>
@@ -12819,7 +13535,9 @@
       <c r="B369" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="C369" s="1"/>
+      <c r="C369" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D369" s="4" t="s">
         <v>441</v>
       </c>
@@ -12841,7 +13559,9 @@
       <c r="B370" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="C370" s="1"/>
+      <c r="C370" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D370" s="4" t="s">
         <v>441</v>
       </c>
@@ -12863,7 +13583,9 @@
       <c r="B371" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="C371" s="1"/>
+      <c r="C371" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D371" s="4" t="s">
         <v>441</v>
       </c>
@@ -12885,7 +13607,9 @@
       <c r="B372" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="C372" s="1"/>
+      <c r="C372" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D372" s="4" t="s">
         <v>441</v>
       </c>
@@ -12907,7 +13631,9 @@
       <c r="B373" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="C373" s="1"/>
+      <c r="C373" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D373" s="4" t="s">
         <v>441</v>
       </c>
@@ -12929,7 +13655,9 @@
       <c r="B374" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="C374" s="1"/>
+      <c r="C374" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D374" s="4" t="s">
         <v>441</v>
       </c>
@@ -12951,7 +13679,9 @@
       <c r="B375" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="C375" s="1"/>
+      <c r="C375" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D375" s="4" t="s">
         <v>441</v>
       </c>
@@ -12973,7 +13703,9 @@
       <c r="B376" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="C376" s="1"/>
+      <c r="C376" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D376" s="4" t="s">
         <v>441</v>
       </c>
@@ -12995,7 +13727,9 @@
       <c r="B377" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="C377" s="1"/>
+      <c r="C377" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D377" s="4" t="s">
         <v>441</v>
       </c>
@@ -13017,7 +13751,9 @@
       <c r="B378" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="C378" s="1"/>
+      <c r="C378" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D378" s="4" t="s">
         <v>441</v>
       </c>
@@ -13039,7 +13775,9 @@
       <c r="B379" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="C379" s="1"/>
+      <c r="C379" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D379" s="4" t="s">
         <v>441</v>
       </c>
@@ -13061,7 +13799,9 @@
       <c r="B380" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="C380" s="1"/>
+      <c r="C380" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D380" s="4" t="s">
         <v>441</v>
       </c>
@@ -13083,7 +13823,9 @@
       <c r="B381" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="C381" s="1"/>
+      <c r="C381" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D381" s="4" t="s">
         <v>441</v>
       </c>
@@ -13105,7 +13847,9 @@
       <c r="B382" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="C382" s="1"/>
+      <c r="C382" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D382" s="4" t="s">
         <v>441</v>
       </c>
@@ -13127,7 +13871,9 @@
       <c r="B383" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="C383" s="1"/>
+      <c r="C383" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D383" s="4" t="s">
         <v>441</v>
       </c>
@@ -13149,7 +13895,9 @@
       <c r="B384" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="C384" s="1"/>
+      <c r="C384" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D384" s="4" t="s">
         <v>441</v>
       </c>
@@ -13171,7 +13919,9 @@
       <c r="B385" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="C385" s="1"/>
+      <c r="C385" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D385" s="4" t="s">
         <v>441</v>
       </c>
@@ -13193,7 +13943,9 @@
       <c r="B386" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="C386" s="1"/>
+      <c r="C386" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D386" s="4" t="s">
         <v>441</v>
       </c>
@@ -13215,7 +13967,9 @@
       <c r="B387" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="C387" s="1"/>
+      <c r="C387" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D387" s="4" t="s">
         <v>441</v>
       </c>
@@ -13237,7 +13991,9 @@
       <c r="B388" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="C388" s="1"/>
+      <c r="C388" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D388" s="4" t="s">
         <v>441</v>
       </c>
@@ -13259,7 +14015,9 @@
       <c r="B389" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="C389" s="1"/>
+      <c r="C389" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D389" s="4" t="s">
         <v>441</v>
       </c>
@@ -13281,7 +14039,9 @@
       <c r="B390" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="C390" s="1"/>
+      <c r="C390" s="1" t="s">
+        <v>1150</v>
+      </c>
       <c r="D390" s="4" t="s">
         <v>441</v>
       </c>
@@ -13303,7 +14063,9 @@
       <c r="B391" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="C391" s="1"/>
+      <c r="C391" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D391" s="4" t="s">
         <v>441</v>
       </c>
@@ -13325,7 +14087,9 @@
       <c r="B392" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="C392" s="1"/>
+      <c r="C392" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D392" s="4" t="s">
         <v>441</v>
       </c>
@@ -13347,7 +14111,9 @@
       <c r="B393" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="C393" s="1"/>
+      <c r="C393" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D393" s="4" t="s">
         <v>441</v>
       </c>
@@ -13369,7 +14135,9 @@
       <c r="B394" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="C394" s="1"/>
+      <c r="C394" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D394" s="4" t="s">
         <v>441</v>
       </c>
@@ -13391,7 +14159,9 @@
       <c r="B395" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="C395" s="1"/>
+      <c r="C395" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D395" s="4" t="s">
         <v>441</v>
       </c>
@@ -13413,7 +14183,9 @@
       <c r="B396" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="C396" s="1"/>
+      <c r="C396" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D396" s="4" t="s">
         <v>441</v>
       </c>
@@ -13435,7 +14207,9 @@
       <c r="B397" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="C397" s="1"/>
+      <c r="C397" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D397" s="4" t="s">
         <v>441</v>
       </c>
@@ -13457,7 +14231,9 @@
       <c r="B398" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="C398" s="1"/>
+      <c r="C398" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D398" s="4" t="s">
         <v>441</v>
       </c>
@@ -13479,7 +14255,9 @@
       <c r="B399" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="C399" s="1"/>
+      <c r="C399" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D399" s="4" t="s">
         <v>441</v>
       </c>
@@ -13501,7 +14279,9 @@
       <c r="B400" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="C400" s="1"/>
+      <c r="C400" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D400" s="4" t="s">
         <v>441</v>
       </c>
@@ -13523,7 +14303,9 @@
       <c r="B401" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="C401" s="1"/>
+      <c r="C401" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D401" s="4" t="s">
         <v>441</v>
       </c>
@@ -13545,7 +14327,9 @@
       <c r="B402" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="C402" s="1"/>
+      <c r="C402" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D402" s="4" t="s">
         <v>441</v>
       </c>
@@ -13567,7 +14351,9 @@
       <c r="B403" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="C403" s="1"/>
+      <c r="C403" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D403" s="4" t="s">
         <v>441</v>
       </c>
@@ -13589,7 +14375,9 @@
       <c r="B404" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="C404" s="1"/>
+      <c r="C404" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D404" s="4" t="s">
         <v>441</v>
       </c>
@@ -13611,7 +14399,9 @@
       <c r="B405" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="C405" s="1"/>
+      <c r="C405" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D405" s="4" t="s">
         <v>441</v>
       </c>
@@ -13633,7 +14423,9 @@
       <c r="B406" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="C406" s="1"/>
+      <c r="C406" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D406" s="4" t="s">
         <v>441</v>
       </c>
@@ -13655,7 +14447,9 @@
       <c r="B407" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="C407" s="1"/>
+      <c r="C407" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D407" s="4" t="s">
         <v>441</v>
       </c>
@@ -13677,7 +14471,9 @@
       <c r="B408" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="C408" s="1"/>
+      <c r="C408" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D408" s="4" t="s">
         <v>441</v>
       </c>
@@ -13699,7 +14495,9 @@
       <c r="B409" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="C409" s="1"/>
+      <c r="C409" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D409" s="4" t="s">
         <v>441</v>
       </c>
@@ -13721,7 +14519,9 @@
       <c r="B410" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="C410" s="1"/>
+      <c r="C410" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D410" s="4" t="s">
         <v>441</v>
       </c>
@@ -13743,7 +14543,9 @@
       <c r="B411" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="C411" s="1"/>
+      <c r="C411" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D411" s="4" t="s">
         <v>441</v>
       </c>
@@ -13765,7 +14567,9 @@
       <c r="B412" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="C412" s="1"/>
+      <c r="C412" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D412" s="4" t="s">
         <v>441</v>
       </c>
@@ -13787,7 +14591,9 @@
       <c r="B413" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="C413" s="1"/>
+      <c r="C413" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D413" s="4" t="s">
         <v>441</v>
       </c>
@@ -13809,7 +14615,9 @@
       <c r="B414" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="C414" s="1"/>
+      <c r="C414" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D414" s="4" t="s">
         <v>441</v>
       </c>
@@ -13831,7 +14639,9 @@
       <c r="B415" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="C415" s="1"/>
+      <c r="C415" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D415" s="4" t="s">
         <v>441</v>
       </c>
@@ -13853,7 +14663,9 @@
       <c r="B416" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="C416" s="1"/>
+      <c r="C416" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D416" s="4" t="s">
         <v>441</v>
       </c>
@@ -13875,7 +14687,9 @@
       <c r="B417" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="C417" s="1"/>
+      <c r="C417" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D417" s="4" t="s">
         <v>441</v>
       </c>
@@ -13897,7 +14711,9 @@
       <c r="B418" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="C418" s="1"/>
+      <c r="C418" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D418" s="4" t="s">
         <v>441</v>
       </c>
@@ -13919,7 +14735,9 @@
       <c r="B419" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="C419" s="1"/>
+      <c r="C419" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D419" s="4" t="s">
         <v>441</v>
       </c>
@@ -13941,7 +14759,9 @@
       <c r="B420" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C420" s="1"/>
+      <c r="C420" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D420" s="4" t="s">
         <v>441</v>
       </c>
@@ -13963,7 +14783,9 @@
       <c r="B421" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="C421" s="1"/>
+      <c r="C421" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D421" s="4" t="s">
         <v>441</v>
       </c>
@@ -13985,7 +14807,9 @@
       <c r="B422" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="C422" s="1"/>
+      <c r="C422" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D422" s="4" t="s">
         <v>441</v>
       </c>
@@ -14007,7 +14831,9 @@
       <c r="B423" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="C423" s="1"/>
+      <c r="C423" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D423" s="4" t="s">
         <v>441</v>
       </c>
@@ -14029,7 +14855,9 @@
       <c r="B424" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="C424" s="1"/>
+      <c r="C424" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D424" s="4" t="s">
         <v>441</v>
       </c>
@@ -14051,7 +14879,9 @@
       <c r="B425" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="C425" s="1"/>
+      <c r="C425" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D425" s="4" t="s">
         <v>441</v>
       </c>
@@ -14073,7 +14903,9 @@
       <c r="B426" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="C426" s="1"/>
+      <c r="C426" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D426" s="4" t="s">
         <v>441</v>
       </c>
@@ -14095,7 +14927,9 @@
       <c r="B427" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="C427" s="1"/>
+      <c r="C427" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D427" s="4" t="s">
         <v>441</v>
       </c>
@@ -14117,7 +14951,9 @@
       <c r="B428" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="C428" s="1"/>
+      <c r="C428" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D428" s="4" t="s">
         <v>441</v>
       </c>
@@ -14139,7 +14975,9 @@
       <c r="B429" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="C429" s="1"/>
+      <c r="C429" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D429" s="4" t="s">
         <v>441</v>
       </c>
@@ -14161,7 +14999,9 @@
       <c r="B430" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="C430" s="1"/>
+      <c r="C430" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D430" s="4" t="s">
         <v>441</v>
       </c>
@@ -14183,7 +15023,9 @@
       <c r="B431" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="C431" s="1"/>
+      <c r="C431" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D431" s="4" t="s">
         <v>441</v>
       </c>
@@ -14205,7 +15047,9 @@
       <c r="B432" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="C432" s="1"/>
+      <c r="C432" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D432" s="4" t="s">
         <v>441</v>
       </c>
@@ -14227,7 +15071,9 @@
       <c r="B433" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="C433" s="1"/>
+      <c r="C433" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D433" s="4" t="s">
         <v>441</v>
       </c>
@@ -14249,7 +15095,9 @@
       <c r="B434" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="C434" s="1"/>
+      <c r="C434" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D434" s="4" t="s">
         <v>441</v>
       </c>
@@ -14271,7 +15119,9 @@
       <c r="B435" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="C435" s="1"/>
+      <c r="C435" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D435" s="4" t="s">
         <v>441</v>
       </c>
@@ -14293,7 +15143,9 @@
       <c r="B436" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="C436" s="1"/>
+      <c r="C436" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D436" s="4" t="s">
         <v>441</v>
       </c>
@@ -14315,7 +15167,9 @@
       <c r="B437" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="C437" s="1"/>
+      <c r="C437" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D437" s="4" t="s">
         <v>441</v>
       </c>
@@ -14337,7 +15191,9 @@
       <c r="B438" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="C438" s="1"/>
+      <c r="C438" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D438" s="4" t="s">
         <v>441</v>
       </c>
@@ -14359,7 +15215,9 @@
       <c r="B439" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="C439" s="1"/>
+      <c r="C439" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D439" s="4" t="s">
         <v>441</v>
       </c>
@@ -14381,7 +15239,9 @@
       <c r="B440" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="C440" s="1"/>
+      <c r="C440" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D440" s="4" t="s">
         <v>441</v>
       </c>
@@ -14403,7 +15263,9 @@
       <c r="B441" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="C441" s="1"/>
+      <c r="C441" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D441" s="4" t="s">
         <v>441</v>
       </c>
@@ -14425,7 +15287,9 @@
       <c r="B442" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="C442" s="1"/>
+      <c r="C442" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D442" s="4" t="s">
         <v>441</v>
       </c>
@@ -14447,7 +15311,9 @@
       <c r="B443" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="C443" s="1"/>
+      <c r="C443" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D443" s="4" t="s">
         <v>441</v>
       </c>
@@ -14469,7 +15335,9 @@
       <c r="B444" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="C444" s="1"/>
+      <c r="C444" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D444" s="4" t="s">
         <v>441</v>
       </c>
@@ -14491,7 +15359,9 @@
       <c r="B445" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="C445" s="1"/>
+      <c r="C445" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D445" s="4" t="s">
         <v>441</v>
       </c>
@@ -14513,7 +15383,9 @@
       <c r="B446" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="C446" s="1"/>
+      <c r="C446" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D446" s="4" t="s">
         <v>441</v>
       </c>
@@ -14535,7 +15407,9 @@
       <c r="B447" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="C447" s="1"/>
+      <c r="C447" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D447" s="4" t="s">
         <v>441</v>
       </c>
@@ -14557,7 +15431,9 @@
       <c r="B448" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="C448" s="1"/>
+      <c r="C448" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D448" s="4" t="s">
         <v>441</v>
       </c>
@@ -14579,7 +15455,9 @@
       <c r="B449" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="C449" s="1"/>
+      <c r="C449" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D449" s="4" t="s">
         <v>441</v>
       </c>
@@ -14601,7 +15479,9 @@
       <c r="B450" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="C450" s="1"/>
+      <c r="C450" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D450" s="4" t="s">
         <v>441</v>
       </c>
@@ -14623,7 +15503,9 @@
       <c r="B451" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="C451" s="1"/>
+      <c r="C451" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D451" s="4" t="s">
         <v>441</v>
       </c>
@@ -14645,7 +15527,9 @@
       <c r="B452" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="C452" s="1"/>
+      <c r="C452" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D452" s="4" t="s">
         <v>441</v>
       </c>
@@ -14667,7 +15551,9 @@
       <c r="B453" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="C453" s="1"/>
+      <c r="C453" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D453" s="4" t="s">
         <v>441</v>
       </c>
@@ -14689,7 +15575,9 @@
       <c r="B454" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="C454" s="1"/>
+      <c r="C454" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D454" s="4" t="s">
         <v>441</v>
       </c>
@@ -14711,7 +15599,9 @@
       <c r="B455" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="C455" s="1"/>
+      <c r="C455" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D455" s="4" t="s">
         <v>441</v>
       </c>
@@ -14733,7 +15623,9 @@
       <c r="B456" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="C456" s="1"/>
+      <c r="C456" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D456" s="4" t="s">
         <v>441</v>
       </c>
@@ -14755,7 +15647,9 @@
       <c r="B457" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="C457" s="1"/>
+      <c r="C457" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D457" s="4" t="s">
         <v>441</v>
       </c>
@@ -14777,7 +15671,9 @@
       <c r="B458" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="C458" s="1"/>
+      <c r="C458" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D458" s="4" t="s">
         <v>441</v>
       </c>
@@ -14799,7 +15695,9 @@
       <c r="B459" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="C459" s="1"/>
+      <c r="C459" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D459" s="4" t="s">
         <v>441</v>
       </c>
@@ -14821,7 +15719,9 @@
       <c r="B460" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="C460" s="1"/>
+      <c r="C460" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D460" s="4" t="s">
         <v>441</v>
       </c>
@@ -14843,7 +15743,9 @@
       <c r="B461" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="C461" s="1"/>
+      <c r="C461" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D461" s="4" t="s">
         <v>441</v>
       </c>
@@ -14865,7 +15767,9 @@
       <c r="B462" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="C462" s="1"/>
+      <c r="C462" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D462" s="4" t="s">
         <v>441</v>
       </c>
@@ -14887,7 +15791,9 @@
       <c r="B463" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="C463" s="1"/>
+      <c r="C463" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D463" s="4" t="s">
         <v>441</v>
       </c>
@@ -14909,7 +15815,9 @@
       <c r="B464" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="C464" s="1"/>
+      <c r="C464" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D464" s="4" t="s">
         <v>441</v>
       </c>
@@ -14931,7 +15839,9 @@
       <c r="B465" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="C465" s="1"/>
+      <c r="C465" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D465" s="4" t="s">
         <v>441</v>
       </c>
@@ -14953,7 +15863,9 @@
       <c r="B466" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="C466" s="1"/>
+      <c r="C466" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D466" s="4" t="s">
         <v>441</v>
       </c>
@@ -14975,7 +15887,9 @@
       <c r="B467" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="C467" s="1"/>
+      <c r="C467" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D467" s="4" t="s">
         <v>441</v>
       </c>
@@ -14997,7 +15911,9 @@
       <c r="B468" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="C468" s="1"/>
+      <c r="C468" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D468" s="4" t="s">
         <v>441</v>
       </c>
@@ -15019,7 +15935,9 @@
       <c r="B469" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="C469" s="1"/>
+      <c r="C469" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D469" s="4" t="s">
         <v>441</v>
       </c>
@@ -15041,7 +15959,9 @@
       <c r="B470" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="C470" s="1"/>
+      <c r="C470" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D470" s="4" t="s">
         <v>441</v>
       </c>
@@ -15063,7 +15983,9 @@
       <c r="B471" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="C471" s="1"/>
+      <c r="C471" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D471" s="4" t="s">
         <v>441</v>
       </c>
@@ -15085,7 +16007,9 @@
       <c r="B472" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="C472" s="1"/>
+      <c r="C472" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D472" s="4" t="s">
         <v>441</v>
       </c>
@@ -15107,7 +16031,9 @@
       <c r="B473" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="C473" s="1"/>
+      <c r="C473" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D473" s="4" t="s">
         <v>441</v>
       </c>
@@ -15129,7 +16055,9 @@
       <c r="B474" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="C474" s="1"/>
+      <c r="C474" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D474" s="4" t="s">
         <v>441</v>
       </c>
@@ -15151,7 +16079,9 @@
       <c r="B475" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="C475" s="1"/>
+      <c r="C475" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D475" s="4" t="s">
         <v>441</v>
       </c>
@@ -15173,7 +16103,9 @@
       <c r="B476" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="C476" s="1"/>
+      <c r="C476" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D476" s="4" t="s">
         <v>441</v>
       </c>
@@ -15195,7 +16127,9 @@
       <c r="B477" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="C477" s="1"/>
+      <c r="C477" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D477" s="4" t="s">
         <v>441</v>
       </c>
@@ -15217,7 +16151,9 @@
       <c r="B478" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="C478" s="1"/>
+      <c r="C478" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D478" s="4" t="s">
         <v>441</v>
       </c>
@@ -15239,7 +16175,9 @@
       <c r="B479" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="C479" s="1"/>
+      <c r="C479" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D479" s="4" t="s">
         <v>441</v>
       </c>
@@ -15261,7 +16199,9 @@
       <c r="B480" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="C480" s="1"/>
+      <c r="C480" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D480" s="4" t="s">
         <v>441</v>
       </c>
@@ -15283,7 +16223,9 @@
       <c r="B481" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="C481" s="1"/>
+      <c r="C481" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D481" s="4" t="s">
         <v>441</v>
       </c>
@@ -15305,7 +16247,9 @@
       <c r="B482" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="C482" s="1"/>
+      <c r="C482" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D482" s="4" t="s">
         <v>441</v>
       </c>
@@ -15327,7 +16271,9 @@
       <c r="B483" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="C483" s="1"/>
+      <c r="C483" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D483" s="4" t="s">
         <v>441</v>
       </c>
@@ -15349,7 +16295,9 @@
       <c r="B484" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="C484" s="1"/>
+      <c r="C484" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D484" s="4" t="s">
         <v>441</v>
       </c>
@@ -15371,7 +16319,9 @@
       <c r="B485" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="C485" s="1"/>
+      <c r="C485" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D485" s="4" t="s">
         <v>441</v>
       </c>
@@ -15393,7 +16343,9 @@
       <c r="B486" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="C486" s="1"/>
+      <c r="C486" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D486" s="4" t="s">
         <v>441</v>
       </c>
@@ -15415,7 +16367,9 @@
       <c r="B487" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="C487" s="1"/>
+      <c r="C487" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D487" s="4" t="s">
         <v>441</v>
       </c>
@@ -15437,7 +16391,9 @@
       <c r="B488" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="C488" s="1"/>
+      <c r="C488" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D488" s="4" t="s">
         <v>441</v>
       </c>
@@ -15459,7 +16415,9 @@
       <c r="B489" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="C489" s="1"/>
+      <c r="C489" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D489" s="4" t="s">
         <v>441</v>
       </c>
@@ -15481,7 +16439,9 @@
       <c r="B490" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="C490" s="1"/>
+      <c r="C490" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D490" s="4" t="s">
         <v>441</v>
       </c>
@@ -15503,7 +16463,9 @@
       <c r="B491" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="C491" s="1"/>
+      <c r="C491" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D491" s="4" t="s">
         <v>441</v>
       </c>
@@ -15525,7 +16487,9 @@
       <c r="B492" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="C492" s="1"/>
+      <c r="C492" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D492" s="4" t="s">
         <v>441</v>
       </c>
@@ -15547,7 +16511,9 @@
       <c r="B493" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="C493" s="1"/>
+      <c r="C493" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D493" s="4" t="s">
         <v>441</v>
       </c>
@@ -15569,7 +16535,9 @@
       <c r="B494" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="C494" s="1"/>
+      <c r="C494" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D494" s="4" t="s">
         <v>441</v>
       </c>
@@ -15591,7 +16559,9 @@
       <c r="B495" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="C495" s="1"/>
+      <c r="C495" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D495" s="4" t="s">
         <v>441</v>
       </c>
@@ -15613,7 +16583,9 @@
       <c r="B496" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="C496" s="1"/>
+      <c r="C496" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D496" s="4" t="s">
         <v>441</v>
       </c>
@@ -15635,7 +16607,9 @@
       <c r="B497" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="C497" s="1"/>
+      <c r="C497" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D497" s="4" t="s">
         <v>441</v>
       </c>
@@ -15657,7 +16631,9 @@
       <c r="B498" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="C498" s="1"/>
+      <c r="C498" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D498" s="4" t="s">
         <v>441</v>
       </c>
@@ -15679,7 +16655,9 @@
       <c r="B499" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="C499" s="1"/>
+      <c r="C499" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D499" s="4" t="s">
         <v>441</v>
       </c>
@@ -15701,7 +16679,9 @@
       <c r="B500" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="C500" s="1"/>
+      <c r="C500" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D500" s="4" t="s">
         <v>441</v>
       </c>
@@ -15723,7 +16703,9 @@
       <c r="B501" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="C501" s="1"/>
+      <c r="C501" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D501" s="4" t="s">
         <v>441</v>
       </c>
@@ -15745,7 +16727,9 @@
       <c r="B502" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="C502" s="1"/>
+      <c r="C502" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D502" s="4" t="s">
         <v>441</v>
       </c>
@@ -15767,7 +16751,9 @@
       <c r="B503" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="C503" s="1"/>
+      <c r="C503" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D503" s="4" t="s">
         <v>441</v>
       </c>
@@ -15789,7 +16775,9 @@
       <c r="B504" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="C504" s="1"/>
+      <c r="C504" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D504" s="4" t="s">
         <v>441</v>
       </c>
@@ -15811,7 +16799,9 @@
       <c r="B505" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="C505" s="1"/>
+      <c r="C505" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D505" s="4" t="s">
         <v>441</v>
       </c>
@@ -15833,7 +16823,9 @@
       <c r="B506" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="C506" s="1"/>
+      <c r="C506" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D506" s="4" t="s">
         <v>441</v>
       </c>
@@ -15855,7 +16847,9 @@
       <c r="B507" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="C507" s="1"/>
+      <c r="C507" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D507" s="4" t="s">
         <v>441</v>
       </c>
@@ -15877,7 +16871,9 @@
       <c r="B508" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="C508" s="1"/>
+      <c r="C508" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D508" s="4" t="s">
         <v>441</v>
       </c>
@@ -15899,7 +16895,9 @@
       <c r="B509" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="C509" s="1"/>
+      <c r="C509" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D509" s="4" t="s">
         <v>441</v>
       </c>
@@ -15921,7 +16919,9 @@
       <c r="B510" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="C510" s="1"/>
+      <c r="C510" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D510" s="4" t="s">
         <v>441</v>
       </c>
@@ -15943,7 +16943,9 @@
       <c r="B511" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="C511" s="1"/>
+      <c r="C511" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D511" s="4" t="s">
         <v>441</v>
       </c>
@@ -15965,7 +16967,9 @@
       <c r="B512" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="C512" s="1"/>
+      <c r="C512" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D512" s="4" t="s">
         <v>441</v>
       </c>
@@ -15987,7 +16991,9 @@
       <c r="B513" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="C513" s="1"/>
+      <c r="C513" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D513" s="4" t="s">
         <v>441</v>
       </c>
@@ -16009,7 +17015,9 @@
       <c r="B514" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="C514" s="1"/>
+      <c r="C514" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D514" s="4" t="s">
         <v>441</v>
       </c>
@@ -16031,7 +17039,9 @@
       <c r="B515" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="C515" s="1"/>
+      <c r="C515" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D515" s="4" t="s">
         <v>441</v>
       </c>
@@ -16053,7 +17063,9 @@
       <c r="B516" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="C516" s="1"/>
+      <c r="C516" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D516" s="4" t="s">
         <v>441</v>
       </c>
@@ -16075,7 +17087,9 @@
       <c r="B517" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="C517" s="1"/>
+      <c r="C517" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D517" s="4" t="s">
         <v>441</v>
       </c>
@@ -16097,7 +17111,9 @@
       <c r="B518" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="C518" s="1"/>
+      <c r="C518" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D518" s="4" t="s">
         <v>441</v>
       </c>
@@ -16119,7 +17135,9 @@
       <c r="B519" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="C519" s="1"/>
+      <c r="C519" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D519" s="4" t="s">
         <v>441</v>
       </c>
@@ -16141,7 +17159,9 @@
       <c r="B520" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="C520" s="1"/>
+      <c r="C520" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D520" s="4" t="s">
         <v>441</v>
       </c>
@@ -16163,7 +17183,9 @@
       <c r="B521" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="C521" s="1"/>
+      <c r="C521" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D521" s="4" t="s">
         <v>441</v>
       </c>
@@ -16185,7 +17207,9 @@
       <c r="B522" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="C522" s="1"/>
+      <c r="C522" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D522" s="4" t="s">
         <v>441</v>
       </c>
@@ -16207,7 +17231,9 @@
       <c r="B523" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="C523" s="1"/>
+      <c r="C523" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D523" s="4" t="s">
         <v>441</v>
       </c>
@@ -16229,7 +17255,9 @@
       <c r="B524" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="C524" s="1"/>
+      <c r="C524" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D524" s="4" t="s">
         <v>441</v>
       </c>
@@ -16251,7 +17279,9 @@
       <c r="B525" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="C525" s="1"/>
+      <c r="C525" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D525" s="4" t="s">
         <v>441</v>
       </c>
@@ -16273,7 +17303,9 @@
       <c r="B526" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="C526" s="1"/>
+      <c r="C526" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D526" s="4" t="s">
         <v>441</v>
       </c>
@@ -16295,7 +17327,9 @@
       <c r="B527" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="C527" s="1"/>
+      <c r="C527" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D527" s="4" t="s">
         <v>441</v>
       </c>
@@ -16317,7 +17351,9 @@
       <c r="B528" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="C528" s="1"/>
+      <c r="C528" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D528" s="4" t="s">
         <v>441</v>
       </c>
@@ -16339,7 +17375,9 @@
       <c r="B529" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="C529" s="1"/>
+      <c r="C529" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D529" s="4" t="s">
         <v>441</v>
       </c>
@@ -16361,7 +17399,9 @@
       <c r="B530" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="C530" s="1"/>
+      <c r="C530" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D530" s="4" t="s">
         <v>441</v>
       </c>
@@ -16383,7 +17423,9 @@
       <c r="B531" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="C531" s="1"/>
+      <c r="C531" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D531" s="4" t="s">
         <v>441</v>
       </c>
@@ -16405,7 +17447,9 @@
       <c r="B532" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="C532" s="1"/>
+      <c r="C532" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D532" s="4" t="s">
         <v>441</v>
       </c>
@@ -16427,7 +17471,9 @@
       <c r="B533" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="C533" s="1"/>
+      <c r="C533" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D533" s="4" t="s">
         <v>441</v>
       </c>
@@ -16449,7 +17495,9 @@
       <c r="B534" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="C534" s="1"/>
+      <c r="C534" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D534" s="4" t="s">
         <v>441</v>
       </c>
@@ -16471,7 +17519,9 @@
       <c r="B535" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="C535" s="1"/>
+      <c r="C535" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D535" s="4" t="s">
         <v>441</v>
       </c>
@@ -16493,7 +17543,9 @@
       <c r="B536" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="C536" s="1"/>
+      <c r="C536" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D536" s="4" t="s">
         <v>441</v>
       </c>
@@ -16515,7 +17567,9 @@
       <c r="B537" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="C537" s="1"/>
+      <c r="C537" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D537" s="4" t="s">
         <v>441</v>
       </c>
@@ -16537,7 +17591,9 @@
       <c r="B538" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="C538" s="1"/>
+      <c r="C538" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D538" s="4" t="s">
         <v>441</v>
       </c>
@@ -16559,7 +17615,9 @@
       <c r="B539" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="C539" s="1"/>
+      <c r="C539" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D539" s="4" t="s">
         <v>441</v>
       </c>
@@ -16581,7 +17639,9 @@
       <c r="B540" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="C540" s="1"/>
+      <c r="C540" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D540" s="4" t="s">
         <v>441</v>
       </c>
@@ -16603,7 +17663,9 @@
       <c r="B541" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="C541" s="1"/>
+      <c r="C541" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D541" s="4" t="s">
         <v>441</v>
       </c>
@@ -16625,7 +17687,9 @@
       <c r="B542" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="C542" s="1"/>
+      <c r="C542" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D542" s="4" t="s">
         <v>441</v>
       </c>
@@ -16647,7 +17711,9 @@
       <c r="B543" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="C543" s="1"/>
+      <c r="C543" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D543" s="4" t="s">
         <v>441</v>
       </c>
@@ -16669,7 +17735,9 @@
       <c r="B544" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="C544" s="1"/>
+      <c r="C544" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D544" s="4" t="s">
         <v>441</v>
       </c>
@@ -16691,7 +17759,9 @@
       <c r="B545" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="C545" s="1"/>
+      <c r="C545" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D545" s="4" t="s">
         <v>441</v>
       </c>
@@ -16713,7 +17783,9 @@
       <c r="B546" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="C546" s="1"/>
+      <c r="C546" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D546" s="4" t="s">
         <v>441</v>
       </c>
@@ -16735,7 +17807,9 @@
       <c r="B547" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="C547" s="1"/>
+      <c r="C547" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D547" s="4" t="s">
         <v>441</v>
       </c>
@@ -16757,7 +17831,9 @@
       <c r="B548" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="C548" s="1"/>
+      <c r="C548" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D548" s="4" t="s">
         <v>441</v>
       </c>
@@ -16779,7 +17855,9 @@
       <c r="B549" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="C549" s="1"/>
+      <c r="C549" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D549" s="4" t="s">
         <v>441</v>
       </c>
@@ -16801,7 +17879,9 @@
       <c r="B550" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="C550" s="1"/>
+      <c r="C550" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D550" s="4" t="s">
         <v>441</v>
       </c>
@@ -16823,7 +17903,9 @@
       <c r="B551" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="C551" s="1"/>
+      <c r="C551" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D551" s="4" t="s">
         <v>441</v>
       </c>
@@ -16845,7 +17927,9 @@
       <c r="B552" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="C552" s="1"/>
+      <c r="C552" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D552" s="4" t="s">
         <v>441</v>
       </c>
@@ -16867,7 +17951,9 @@
       <c r="B553" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="C553" s="1"/>
+      <c r="C553" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D553" s="4" t="s">
         <v>441</v>
       </c>
@@ -16889,7 +17975,9 @@
       <c r="B554" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="C554" s="1"/>
+      <c r="C554" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D554" s="4" t="s">
         <v>441</v>
       </c>
@@ -16911,7 +17999,9 @@
       <c r="B555" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C555" s="1"/>
+      <c r="C555" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D555" s="4" t="s">
         <v>441</v>
       </c>
@@ -16933,7 +18023,9 @@
       <c r="B556" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="C556" s="1"/>
+      <c r="C556" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D556" s="4" t="s">
         <v>441</v>
       </c>
@@ -16955,7 +18047,9 @@
       <c r="B557" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="C557" s="1"/>
+      <c r="C557" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D557" s="4" t="s">
         <v>441</v>
       </c>
@@ -16977,7 +18071,9 @@
       <c r="B558" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="C558" s="1"/>
+      <c r="C558" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D558" s="4" t="s">
         <v>441</v>
       </c>
@@ -16999,7 +18095,9 @@
       <c r="B559" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="C559" s="1"/>
+      <c r="C559" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D559" s="4" t="s">
         <v>441</v>
       </c>
@@ -17021,7 +18119,9 @@
       <c r="B560" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="C560" s="1"/>
+      <c r="C560" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D560" s="4" t="s">
         <v>441</v>
       </c>
@@ -17043,7 +18143,9 @@
       <c r="B561" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="C561" s="1"/>
+      <c r="C561" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D561" s="4" t="s">
         <v>441</v>
       </c>
@@ -17065,7 +18167,9 @@
       <c r="B562" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="C562" s="1"/>
+      <c r="C562" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D562" s="4" t="s">
         <v>441</v>
       </c>
@@ -17087,7 +18191,9 @@
       <c r="B563" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="C563" s="1"/>
+      <c r="C563" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D563" s="4" t="s">
         <v>441</v>
       </c>
@@ -17109,7 +18215,9 @@
       <c r="B564" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="C564" s="1"/>
+      <c r="C564" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D564" s="4" t="s">
         <v>441</v>
       </c>
@@ -17131,7 +18239,9 @@
       <c r="B565" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="C565" s="1"/>
+      <c r="C565" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D565" s="4" t="s">
         <v>441</v>
       </c>
@@ -17153,7 +18263,9 @@
       <c r="B566" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="C566" s="1"/>
+      <c r="C566" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D566" s="4" t="s">
         <v>441</v>
       </c>
@@ -17175,7 +18287,9 @@
       <c r="B567" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="C567" s="1"/>
+      <c r="C567" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D567" s="4" t="s">
         <v>441</v>
       </c>
@@ -17197,7 +18311,9 @@
       <c r="B568" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="C568" s="1"/>
+      <c r="C568" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D568" s="4" t="s">
         <v>441</v>
       </c>
@@ -17219,7 +18335,9 @@
       <c r="B569" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="C569" s="1"/>
+      <c r="C569" s="1" t="s">
+        <v>1152</v>
+      </c>
       <c r="D569" s="4" t="s">
         <v>441</v>
       </c>
@@ -17241,7 +18359,9 @@
       <c r="B570" s="8" t="s">
         <v>1145</v>
       </c>
-      <c r="C570" s="8"/>
+      <c r="C570" s="8" t="s">
+        <v>1152</v>
+      </c>
       <c r="D570" s="30" t="s">
         <v>441</v>
       </c>

--- a/_docs/schema.xlsx
+++ b/_docs/schema.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\PROJECTS\stone-fra\_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407019D8-6155-45BF-AEE8-B620AFA1FCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8260D1-D096-42E5-88E9-BD6001632A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="欄位定義" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">欄位定義!$C$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">欄位定義!$C$1:$F$570</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4385,8 +4385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A76A25D-3D93-4646-B21A-9D8CE5759F25}">
   <dimension ref="A1:O571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A534" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F570"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20105,7 +20105,7 @@
     </row>
     <row r="571" spans="1:9" ht="15.75" thickTop="1"/>
   </sheetData>
-  <autoFilter ref="C1:F1" xr:uid="{3A76A25D-3D93-4646-B21A-9D8CE5759F25}"/>
+  <autoFilter ref="C1:F570" xr:uid="{3A76A25D-3D93-4646-B21A-9D8CE5759F25}"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/_docs/schema.xlsx
+++ b/_docs/schema.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\PROJECTS\stone-fra\_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8260D1-D096-42E5-88E9-BD6001632A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559FFE4C-B01C-47EE-A7CC-F6C999116CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="欄位定義" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">欄位定義!$C$1:$F$570</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">欄位定義!$C$1:$F$572</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4535" uniqueCount="1155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4551" uniqueCount="1159">
   <si>
     <t>美國-Baker Hughes原油鑽油井數量</t>
   </si>
@@ -3695,6 +3695,18 @@
   </si>
   <si>
     <t>label3</t>
+  </si>
+  <si>
+    <t>EHGDTW Index</t>
+  </si>
+  <si>
+    <t>TWGDCURY index</t>
+  </si>
+  <si>
+    <t>實質GDP</t>
+  </si>
+  <si>
+    <t>名目GDP 年增減</t>
   </si>
 </sst>
 </file>
@@ -4383,10 +4395,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A76A25D-3D93-4646-B21A-9D8CE5759F25}">
-  <dimension ref="A1:O571"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:O573"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A536" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B542" sqref="B542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20024,19 +20037,19 @@
     </row>
     <row r="568" spans="1:9">
       <c r="A568" s="1" t="s">
-        <v>1140</v>
+        <v>1155</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>1141</v>
+        <v>1157</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D568" s="1" t="s">
-        <v>1148</v>
+        <v>647</v>
       </c>
       <c r="E568" s="1" t="s">
-        <v>1148</v>
+        <v>652</v>
       </c>
       <c r="F568" s="35" t="s">
         <v>1148</v>
@@ -20051,61 +20064,115 @@
     </row>
     <row r="569" spans="1:9">
       <c r="A569" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D569" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E569" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="F569" s="35" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G569" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="H569" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="I569" s="23"/>
+    </row>
+    <row r="570" spans="1:9">
+      <c r="A570" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F570" s="35" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G570" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="H570" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="I570" s="23"/>
+    </row>
+    <row r="571" spans="1:9">
+      <c r="A571" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="B569" s="1" t="s">
+      <c r="B571" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="C569" s="1" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D569" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E569" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="F569" s="35" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G569" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="H569" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="I569" s="23"/>
-    </row>
-    <row r="570" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A570" s="8" t="s">
+      <c r="C571" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D571" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F571" s="35" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G571" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="H571" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="I571" s="23"/>
+    </row>
+    <row r="572" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A572" s="8" t="s">
         <v>1144</v>
       </c>
-      <c r="B570" s="8" t="s">
+      <c r="B572" s="8" t="s">
         <v>1145</v>
       </c>
-      <c r="C570" s="8" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D570" s="8" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E570" s="8" t="s">
-        <v>1148</v>
-      </c>
-      <c r="F570" s="35" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G570" s="30" t="s">
-        <v>441</v>
-      </c>
-      <c r="H570" s="30" t="s">
-        <v>584</v>
-      </c>
-      <c r="I570" s="25"/>
-    </row>
-    <row r="571" spans="1:9" ht="15.75" thickTop="1"/>
+      <c r="C572" s="8" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D572" s="8" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E572" s="8" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F572" s="35" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G572" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="H572" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="I572" s="25"/>
+    </row>
+    <row r="573" spans="1:9" ht="15.75" thickTop="1"/>
   </sheetData>
-  <autoFilter ref="C1:F570" xr:uid="{3A76A25D-3D93-4646-B21A-9D8CE5759F25}"/>
+  <autoFilter ref="C1:F572" xr:uid="{3A76A25D-3D93-4646-B21A-9D8CE5759F25}"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
